--- a/Hardware/Electronics/Classification and Control Board/BoM.xlsx
+++ b/Hardware/Electronics/Classification and Control Board/BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\branches\CandC_shrink\Hardware\Electronics\Classification and Control Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6AA8B2-9982-4CBE-BD58-E5978FAA09B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3665EBD8-7B2B-435D-BF53-45D01EDFABD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5250" yWindow="3630" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="448">
   <si>
     <t xml:space="preserve">    C2</t>
   </si>
@@ -1235,6 +1235,153 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERA-3AEB104V/P100KDBCT-ND/1466100</t>
+  </si>
+  <si>
+    <t>10µF 16V Aluminum Electrolytic Capacitors Radial, Can - SMD  2000 Hrs @ 85°C</t>
+  </si>
+  <si>
+    <t>493-2100-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/nichicon/UWX1C100MCL1GB/493-2100-1-ND/590075</t>
+  </si>
+  <si>
+    <t>Zener Diode 10V 1W ±5% Surface Mount SMA</t>
+  </si>
+  <si>
+    <t>SMAZ10-FDICT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/diodes-incorporated/SMAZ10-13-F/SMAZ10-FDICT-ND/775874</t>
+  </si>
+  <si>
+    <t>12MHz Ceramic Resonator Built in Capacitor 33pF ±0.11% 30 Ohms -40°C ~ 85°C Surface Mount</t>
+  </si>
+  <si>
+    <t>490-17947-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/CSTNE12M0GH5L000R0/490-17947-1-ND/8747755</t>
+  </si>
+  <si>
+    <t>2.2µF ±10% 16V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>399-7886-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/kemet/C0603C225K4PACTU/399-7886-1-ND/3471609</t>
+  </si>
+  <si>
+    <t>33 kOhms ±1% 0.25W, 1/4W Chip Resistor 0603 (1608 Metric) Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
+    <t>A130434CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/te-connectivity-passive-product/CRGP0603F33K/A130434CT-ND/8578266</t>
+  </si>
+  <si>
+    <t>4.7µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
+  </si>
+  <si>
+    <t>1276-1900-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10A475KA8NQNC/1276-1900-1-ND/3889986</t>
+  </si>
+  <si>
+    <t>499 kOhms ±1% 0.25W, 1/4W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
+    <t>541-499KSCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-dale/CRCW0603499KFKEAHP/541-499KSCT-ND/5326850</t>
+  </si>
+  <si>
+    <t>50 mOhms ±0.5% 0.2W, 1/5W Chip Resistor 0603 (1608 Metric) Current Sense Metal Film</t>
+  </si>
+  <si>
+    <t>273-KDV06DR050ETCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/ohmite/KDV06DR050ET/273-KDV06DR050ETCT-ND/10477057</t>
+  </si>
+  <si>
+    <t>68 Ohms ±1% 0.25W, 1/4W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
+    <t>541-68.0SCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-dale/CRCW060368R0FKEAHP/541-68.0SCT-ND/5326867</t>
+  </si>
+  <si>
+    <t>Connector Header Through Hole, Right Angle 3 position 0.100" (2.54mm)</t>
+  </si>
+  <si>
+    <t>609-6345-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/amphenol-icc-fci/68016-403HLF/609-6345-ND/4273587</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC  1 Output  1.2A SOT-223</t>
+  </si>
+  <si>
+    <t>497-17239-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/LDL1117S33R/497-17239-1-ND/7102079</t>
+  </si>
+  <si>
+    <t>Orange 606nm LED Indication - Discrete 2V 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>475-2488-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/osram-opto-semiconductors-inc/LO-R976-PS-1/475-2488-1-ND/1802615</t>
+  </si>
+  <si>
+    <t>Blue 470nm LED Indication - Discrete 3.3V 0805 (2012 Metric)</t>
+  </si>
+  <si>
+    <t>160-1645-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/lite-on-inc/LTST-C171TBKT/160-1645-1-ND/573585</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/microchip-technology/MCP1755T-5002E-DC/MCP1755T-5002E-DCCT-ND/4484876</t>
+  </si>
+  <si>
+    <t>P-Channel 20V 7.4A (Tc) 5W (Tc) Surface Mount 6-TSOP</t>
+  </si>
+  <si>
+    <t>SQ3425EV-T1_GE3CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/vishay-siliconix/SQ3425EV-T1_GE3/SQ3425EV-T1_GE3CT-ND/6708983</t>
+  </si>
+  <si>
+    <t>ARM® Cortex®-M4 STM32F4 Microcontroller IC 32-Bit 168MHz 1MB (1M x 8) FLASH 100-LQFP (14x14)</t>
+  </si>
+  <si>
+    <t>497-11605-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/STM32F407VGT6/497-11605-ND/2747117</t>
+  </si>
+  <si>
+    <t>609-3263-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/amphenol-icc-fci/68000-406HLF/609-3263-ND/1878471</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1563,16 +1710,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:J95"/>
+  <dimension ref="B1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1605,7 +1752,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1781,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -1644,12 +1791,26 @@
       <c r="D3" t="s">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">1-F3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" t="s">
+        <v>217</v>
+      </c>
+      <c r="J3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1839,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1688,12 +1849,26 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -1722,7 +1897,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -1732,12 +1907,27 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
+      <c r="E7">
+        <v>0.49</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G3:G66" si="0">1-F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>414</v>
+      </c>
+      <c r="I7" t="s">
+        <v>415</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -1766,7 +1956,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -1776,12 +1966,26 @@
       <c r="D9" t="s">
         <v>2</v>
       </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1791,12 +1995,26 @@
       <c r="D10" t="s">
         <v>2</v>
       </c>
+      <c r="E10">
+        <v>0.1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -1825,7 +2043,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -1835,12 +2053,26 @@
       <c r="D12" t="s">
         <v>2</v>
       </c>
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
+      <c r="J12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
@@ -1850,12 +2082,26 @@
       <c r="D13" t="s">
         <v>2</v>
       </c>
+      <c r="E13">
+        <v>0.1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -1884,7 +2130,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>19</v>
       </c>
@@ -1894,12 +2140,26 @@
       <c r="D15" t="s">
         <v>2</v>
       </c>
+      <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>216</v>
+      </c>
+      <c r="I15" t="s">
+        <v>217</v>
+      </c>
+      <c r="J15" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>20</v>
       </c>
@@ -1928,7 +2188,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>21</v>
       </c>
@@ -1938,12 +2198,26 @@
       <c r="D17" t="s">
         <v>2</v>
       </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" t="s">
+        <v>217</v>
+      </c>
+      <c r="J17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>22</v>
       </c>
@@ -1953,12 +2227,26 @@
       <c r="D18" t="s">
         <v>2</v>
       </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>216</v>
+      </c>
+      <c r="I18" t="s">
+        <v>217</v>
+      </c>
+      <c r="J18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -1987,7 +2275,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1997,12 +2285,26 @@
       <c r="D20" t="s">
         <v>2</v>
       </c>
+      <c r="E20">
+        <v>0.1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>216</v>
+      </c>
+      <c r="I20" t="s">
+        <v>217</v>
+      </c>
+      <c r="J20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -2031,7 +2333,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -2041,12 +2343,26 @@
       <c r="D22" t="s">
         <v>2</v>
       </c>
+      <c r="E22">
+        <v>0.1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>221</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -2056,12 +2372,26 @@
       <c r="D23" t="s">
         <v>2</v>
       </c>
+      <c r="E23">
+        <v>0.15</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -2071,12 +2401,26 @@
       <c r="D24" t="s">
         <v>2</v>
       </c>
+      <c r="E24">
+        <v>0.1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -2086,12 +2430,27 @@
       <c r="D25" t="s">
         <v>2</v>
       </c>
+      <c r="E25">
+        <v>0.49</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G25" si="1">1-F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>414</v>
+      </c>
+      <c r="I25" t="s">
+        <v>415</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -2101,12 +2460,27 @@
       <c r="D26" t="s">
         <v>2</v>
       </c>
+      <c r="E26">
+        <v>0.21</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H26" t="s">
+        <v>408</v>
+      </c>
+      <c r="I26" t="s">
+        <v>409</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -2116,12 +2490,26 @@
       <c r="D27" t="s">
         <v>2</v>
       </c>
+      <c r="E27">
+        <v>0.15</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>183</v>
+      </c>
+      <c r="I27" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -2131,12 +2519,27 @@
       <c r="D28" t="s">
         <v>2</v>
       </c>
+      <c r="E28">
+        <v>0.21</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G28" si="2">1-F28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>408</v>
+      </c>
+      <c r="I28" t="s">
+        <v>409</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -2146,12 +2549,26 @@
       <c r="D29" t="s">
         <v>2</v>
       </c>
+      <c r="E29">
+        <v>0.1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H29" t="s">
+        <v>216</v>
+      </c>
+      <c r="I29" t="s">
+        <v>217</v>
+      </c>
+      <c r="J29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -2161,12 +2578,26 @@
       <c r="D30" t="s">
         <v>38</v>
       </c>
+      <c r="E30">
+        <v>1.48</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>195</v>
+      </c>
+      <c r="I30" t="s">
+        <v>196</v>
+      </c>
+      <c r="J30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>39</v>
       </c>
@@ -2176,12 +2607,27 @@
       <c r="D31" t="s">
         <v>41</v>
       </c>
+      <c r="E31">
+        <v>0.4</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>399</v>
+      </c>
+      <c r="I31" t="s">
+        <v>400</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>42</v>
       </c>
@@ -2191,12 +2637,27 @@
       <c r="D32" t="s">
         <v>2</v>
       </c>
+      <c r="E32">
+        <v>0.49</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G32:G33" si="3">1-F32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>414</v>
+      </c>
+      <c r="I32" t="s">
+        <v>415</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>43</v>
       </c>
@@ -2206,12 +2667,27 @@
       <c r="D33" t="s">
         <v>2</v>
       </c>
+      <c r="E33">
+        <v>0.49</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>414</v>
+      </c>
+      <c r="I33" t="s">
+        <v>415</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>44</v>
       </c>
@@ -2240,7 +2716,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>45</v>
       </c>
@@ -2269,7 +2745,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -2279,12 +2755,26 @@
       <c r="D36" t="s">
         <v>2</v>
       </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>216</v>
+      </c>
+      <c r="I36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>47</v>
       </c>
@@ -2294,12 +2784,26 @@
       <c r="D37" t="s">
         <v>2</v>
       </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" t="s">
+        <v>217</v>
+      </c>
+      <c r="J37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>48</v>
       </c>
@@ -2309,12 +2813,26 @@
       <c r="D38" t="s">
         <v>2</v>
       </c>
+      <c r="E38">
+        <v>0.1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" t="s">
+        <v>217</v>
+      </c>
+      <c r="J38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>49</v>
       </c>
@@ -2343,7 +2861,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>50</v>
       </c>
@@ -2353,12 +2871,27 @@
       <c r="D40" t="s">
         <v>2</v>
       </c>
+      <c r="E40">
+        <v>0.49</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G40" si="4">1-F40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>414</v>
+      </c>
+      <c r="I40" t="s">
+        <v>415</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>51</v>
       </c>
@@ -2387,7 +2920,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>52</v>
       </c>
@@ -2397,12 +2930,26 @@
       <c r="D42" t="s">
         <v>2</v>
       </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
       <c r="G42">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>216</v>
+      </c>
+      <c r="I42" t="s">
+        <v>217</v>
+      </c>
+      <c r="J42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>53</v>
       </c>
@@ -2412,12 +2959,27 @@
       <c r="D43" t="s">
         <v>55</v>
       </c>
+      <c r="E43">
+        <v>0.48</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>435</v>
+      </c>
+      <c r="I43" t="s">
+        <v>436</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>56</v>
       </c>
@@ -2427,12 +2989,27 @@
       <c r="D44" t="s">
         <v>55</v>
       </c>
+      <c r="E44">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>432</v>
+      </c>
+      <c r="I44" t="s">
+        <v>433</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>58</v>
       </c>
@@ -2442,12 +3019,27 @@
       <c r="D45" t="s">
         <v>60</v>
       </c>
+      <c r="E45">
+        <v>0.69</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>402</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>61</v>
       </c>
@@ -2457,12 +3049,26 @@
       <c r="D46" t="s">
         <v>63</v>
       </c>
+      <c r="E46">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>246</v>
+      </c>
+      <c r="I46" t="s">
+        <v>247</v>
+      </c>
+      <c r="J46" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>64</v>
       </c>
@@ -2472,12 +3078,27 @@
       <c r="D47" t="s">
         <v>66</v>
       </c>
+      <c r="E47">
+        <v>0.4</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
       <c r="G47">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>290</v>
+      </c>
+      <c r="I47" t="s">
+        <v>445</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>67</v>
       </c>
@@ -2487,12 +3108,26 @@
       <c r="D48" t="s">
         <v>69</v>
       </c>
+      <c r="E48">
+        <v>2.08</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
       <c r="G48">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>281</v>
+      </c>
+      <c r="I48" t="s">
+        <v>282</v>
+      </c>
+      <c r="J48" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>70</v>
       </c>
@@ -2502,12 +3137,27 @@
       <c r="D49" t="s">
         <v>72</v>
       </c>
+      <c r="E49">
+        <v>0.15</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
       <c r="G49">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G49" si="5">1-F49</f>
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>426</v>
+      </c>
+      <c r="I49" t="s">
+        <v>427</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>73</v>
       </c>
@@ -2517,12 +3167,27 @@
       <c r="D50" t="s">
         <v>72</v>
       </c>
+      <c r="E50">
+        <v>0.15</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
       <c r="G50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>426</v>
+      </c>
+      <c r="I50" t="s">
+        <v>427</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>75</v>
       </c>
@@ -2532,12 +3197,27 @@
       <c r="D51" t="s">
         <v>72</v>
       </c>
+      <c r="E51">
+        <v>0.15</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
       <c r="G51">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G51:G54" si="6">1-F51</f>
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>426</v>
+      </c>
+      <c r="I51" t="s">
+        <v>427</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>77</v>
       </c>
@@ -2547,12 +3227,27 @@
       <c r="D52" t="s">
         <v>72</v>
       </c>
+      <c r="E52">
+        <v>0.15</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
       <c r="G52">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>426</v>
+      </c>
+      <c r="I52" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>79</v>
       </c>
@@ -2562,12 +3257,27 @@
       <c r="D53" t="s">
         <v>72</v>
       </c>
+      <c r="E53">
+        <v>0.15</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
       <c r="G53">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>426</v>
+      </c>
+      <c r="I53" t="s">
+        <v>427</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>81</v>
       </c>
@@ -2577,12 +3287,27 @@
       <c r="D54" t="s">
         <v>72</v>
       </c>
+      <c r="E54">
+        <v>0.15</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
       <c r="G54">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>426</v>
+      </c>
+      <c r="I54" t="s">
+        <v>427</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>83</v>
       </c>
@@ -2592,12 +3317,26 @@
       <c r="D55" t="s">
         <v>85</v>
       </c>
+      <c r="E55">
+        <v>1.01</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
       <c r="G55">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>285</v>
+      </c>
+      <c r="I55" t="s">
+        <v>286</v>
+      </c>
+      <c r="J55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>86</v>
       </c>
@@ -2607,12 +3346,26 @@
       <c r="D56" t="s">
         <v>88</v>
       </c>
+      <c r="E56">
+        <v>3.38</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
       <c r="G56">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>277</v>
+      </c>
+      <c r="I56" t="s">
+        <v>278</v>
+      </c>
+      <c r="J56" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>89</v>
       </c>
@@ -2622,12 +3375,26 @@
       <c r="D57" t="s">
         <v>91</v>
       </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
       <c r="G57">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>312</v>
+      </c>
+      <c r="I57" t="s">
+        <v>313</v>
+      </c>
+      <c r="J57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>92</v>
       </c>
@@ -2637,12 +3404,26 @@
       <c r="D58" t="s">
         <v>94</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
       <c r="G58">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>312</v>
+      </c>
+      <c r="I58" t="s">
+        <v>313</v>
+      </c>
+      <c r="J58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>95</v>
       </c>
@@ -2652,12 +3433,26 @@
       <c r="D59" t="s">
         <v>97</v>
       </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
       <c r="G59">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>316</v>
+      </c>
+      <c r="I59" t="s">
+        <v>313</v>
+      </c>
+      <c r="J59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>98</v>
       </c>
@@ -2667,12 +3462,26 @@
       <c r="D60" t="s">
         <v>97</v>
       </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
       <c r="G60">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>316</v>
+      </c>
+      <c r="I60" t="s">
+        <v>313</v>
+      </c>
+      <c r="J60" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>99</v>
       </c>
@@ -2682,12 +3491,26 @@
       <c r="D61" t="s">
         <v>97</v>
       </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
       <c r="G61">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>316</v>
+      </c>
+      <c r="I61" t="s">
+        <v>313</v>
+      </c>
+      <c r="J61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>100</v>
       </c>
@@ -2697,9 +3520,24 @@
       <c r="D62" t="s">
         <v>102</v>
       </c>
+      <c r="E62">
+        <v>0.65</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
       <c r="G62">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>439</v>
+      </c>
+      <c r="I62" t="s">
+        <v>440</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
@@ -2760,7 +3598,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="65" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>107</v>
       </c>
@@ -2770,12 +3608,27 @@
       <c r="D65" t="s">
         <v>105</v>
       </c>
+      <c r="E65">
+        <v>0.17</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
       <c r="G65">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>423</v>
+      </c>
+      <c r="I65" t="s">
+        <v>424</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>109</v>
       </c>
@@ -2785,12 +3638,27 @@
       <c r="D66" t="s">
         <v>105</v>
       </c>
+      <c r="E66">
+        <v>0.15</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
       <c r="G66">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>411</v>
+      </c>
+      <c r="I66" t="s">
+        <v>412</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>111</v>
       </c>
@@ -2800,12 +3668,27 @@
       <c r="D67" t="s">
         <v>105</v>
       </c>
+      <c r="E67">
+        <v>0.42</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
       <c r="G67">
-        <f t="shared" ref="G67:G95" si="1">1-F67</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G67:G95" si="7">1-F67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>420</v>
+      </c>
+      <c r="I67" t="s">
+        <v>421</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>113</v>
       </c>
@@ -2815,12 +3698,27 @@
       <c r="D68" t="s">
         <v>105</v>
       </c>
+      <c r="E68">
+        <v>0.42</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
       <c r="G68">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G68:G72" si="8">1-F68</f>
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>420</v>
+      </c>
+      <c r="I68" t="s">
+        <v>421</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>114</v>
       </c>
@@ -2830,12 +3728,27 @@
       <c r="D69" t="s">
         <v>105</v>
       </c>
+      <c r="E69">
+        <v>0.42</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
       <c r="G69">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>420</v>
+      </c>
+      <c r="I69" t="s">
+        <v>421</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>115</v>
       </c>
@@ -2845,12 +3758,27 @@
       <c r="D70" t="s">
         <v>105</v>
       </c>
+      <c r="E70">
+        <v>0.42</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
       <c r="G70">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>420</v>
+      </c>
+      <c r="I70" t="s">
+        <v>421</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>116</v>
       </c>
@@ -2860,12 +3788,27 @@
       <c r="D71" t="s">
         <v>105</v>
       </c>
+      <c r="E71">
+        <v>0.42</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
       <c r="G71">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>420</v>
+      </c>
+      <c r="I71" t="s">
+        <v>421</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>117</v>
       </c>
@@ -2875,12 +3818,27 @@
       <c r="D72" t="s">
         <v>105</v>
       </c>
+      <c r="E72">
+        <v>0.42</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
       <c r="G72">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>420</v>
+      </c>
+      <c r="I72" t="s">
+        <v>421</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>118</v>
       </c>
@@ -2890,9 +3848,24 @@
       <c r="D73" t="s">
         <v>105</v>
       </c>
+      <c r="E73">
+        <v>0.17</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
       <c r="G73">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>417</v>
+      </c>
+      <c r="I73" t="s">
+        <v>418</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
@@ -2924,7 +3897,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>121</v>
       </c>
@@ -2934,9 +3907,24 @@
       <c r="D75" t="s">
         <v>105</v>
       </c>
+      <c r="E75">
+        <v>0.17</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
       <c r="G75">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G75" si="9">1-F75</f>
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>417</v>
+      </c>
+      <c r="I75" t="s">
+        <v>418</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
@@ -2968,7 +3956,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="77" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>123</v>
       </c>
@@ -2978,9 +3966,24 @@
       <c r="D77" t="s">
         <v>105</v>
       </c>
+      <c r="E77">
+        <v>0.17</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
       <c r="G77">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G77" si="10">1-F77</f>
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>417</v>
+      </c>
+      <c r="I77" t="s">
+        <v>418</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
@@ -3012,7 +4015,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>125</v>
       </c>
@@ -3022,9 +4025,24 @@
       <c r="D79" t="s">
         <v>105</v>
       </c>
+      <c r="E79">
+        <v>0.17</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
       <c r="G79">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G79" si="11">1-F79</f>
+        <v>0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>417</v>
+      </c>
+      <c r="I79" t="s">
+        <v>418</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
@@ -3056,7 +4074,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>127</v>
       </c>
@@ -3066,9 +4084,24 @@
       <c r="D81" t="s">
         <v>105</v>
       </c>
+      <c r="E81">
+        <v>0.17</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
       <c r="G81">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G81" si="12">1-F81</f>
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>417</v>
+      </c>
+      <c r="I81" t="s">
+        <v>418</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
@@ -3100,7 +4133,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>129</v>
       </c>
@@ -3110,9 +4143,24 @@
       <c r="D83" t="s">
         <v>105</v>
       </c>
+      <c r="E83">
+        <v>0.17</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
       <c r="G83">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G83" si="13">1-F83</f>
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>417</v>
+      </c>
+      <c r="I83" t="s">
+        <v>418</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
@@ -3144,7 +4192,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>131</v>
       </c>
@@ -3154,9 +4202,24 @@
       <c r="D85" t="s">
         <v>105</v>
       </c>
+      <c r="E85">
+        <v>0.17</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
       <c r="G85">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="G85" si="14">1-F85</f>
+        <v>0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>417</v>
+      </c>
+      <c r="I85" t="s">
+        <v>418</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
@@ -3188,7 +4251,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>133</v>
       </c>
@@ -3205,7 +4268,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87" t="s">
@@ -3218,7 +4281,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>134</v>
       </c>
@@ -3228,12 +4291,26 @@
       <c r="D88" t="s">
         <v>136</v>
       </c>
+      <c r="E88">
+        <v>0.15</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
       <c r="G88">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>320</v>
+      </c>
+      <c r="I88" t="s">
+        <v>321</v>
+      </c>
+      <c r="J88" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>137</v>
       </c>
@@ -3243,12 +4320,26 @@
       <c r="D89" t="s">
         <v>139</v>
       </c>
+      <c r="E89">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
       <c r="G89">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>356</v>
+      </c>
+      <c r="I89" t="s">
+        <v>357</v>
+      </c>
+      <c r="J89" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>140</v>
       </c>
@@ -3258,12 +4349,26 @@
       <c r="D90" t="s">
         <v>139</v>
       </c>
+      <c r="E90">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
       <c r="G90">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>356</v>
+      </c>
+      <c r="I90" t="s">
+        <v>357</v>
+      </c>
+      <c r="J90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>142</v>
       </c>
@@ -3273,12 +4378,27 @@
       <c r="D91" t="s">
         <v>144</v>
       </c>
+      <c r="E91">
+        <v>0.45</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
       <c r="G91">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>429</v>
+      </c>
+      <c r="I91" t="s">
+        <v>430</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>145</v>
       </c>
@@ -3288,12 +4408,27 @@
       <c r="D92" t="s">
         <v>147</v>
       </c>
+      <c r="E92">
+        <v>11.72</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
       <c r="G92">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>442</v>
+      </c>
+      <c r="I92" t="s">
+        <v>443</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>148</v>
       </c>
@@ -3303,12 +4438,27 @@
       <c r="D93" t="s">
         <v>150</v>
       </c>
+      <c r="E93">
+        <v>0.66</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
       <c r="G93">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>377</v>
+      </c>
+      <c r="I93" t="s">
+        <v>378</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>151</v>
       </c>
@@ -3318,12 +4468,26 @@
       <c r="D94" t="s">
         <v>153</v>
       </c>
+      <c r="E94">
+        <v>6.88</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
       <c r="G94">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>385</v>
+      </c>
+      <c r="I94" t="s">
+        <v>386</v>
+      </c>
+      <c r="J94" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>154</v>
       </c>
@@ -3333,19 +4497,45 @@
       <c r="D95" t="s">
         <v>156</v>
       </c>
+      <c r="E95">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
       <c r="G95">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>405</v>
+      </c>
+      <c r="I95" t="s">
+        <v>406</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>447</v>
+      </c>
+      <c r="E96">
+        <f>SUM(E2:E95)</f>
+        <v>48.160000000000032</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ref="F96:G96" si="15">SUM(F2:F95)</f>
+        <v>78</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="15"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J95" xr:uid="{A56EB152-C8D6-4F90-A8F5-F0B7333D94D6}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="100k"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:J95" xr:uid="{A56EB152-C8D6-4F90-A8F5-F0B7333D94D6}"/>
   <hyperlinks>
     <hyperlink ref="J87" r:id="rId1" xr:uid="{F13FC284-70A4-4C96-9C50-FEC68AEB5362}"/>
     <hyperlink ref="J63" r:id="rId2" xr:uid="{9E9AC47E-15B7-4A7A-8704-ACCB6B21CBAD}"/>
@@ -3357,6 +4547,44 @@
     <hyperlink ref="J82" r:id="rId8" xr:uid="{7B79BF6E-A3D9-4669-AE88-002BF49D5DA4}"/>
     <hyperlink ref="J84" r:id="rId9" xr:uid="{55E7AE11-E45B-4510-8B17-D6DF930F8CF9}"/>
     <hyperlink ref="J86" r:id="rId10" xr:uid="{843CE52B-2A70-482A-BECB-1C54769C9226}"/>
+    <hyperlink ref="J31" r:id="rId11" xr:uid="{DCA30EC8-39CD-4817-8950-A0DDE5394238}"/>
+    <hyperlink ref="J45" r:id="rId12" xr:uid="{F15A40FE-B590-430F-B15D-BE08B02C2830}"/>
+    <hyperlink ref="J95" r:id="rId13" xr:uid="{9126D8DD-A96F-494D-B12A-AC96726E8C30}"/>
+    <hyperlink ref="J26" r:id="rId14" xr:uid="{0B8B1C80-232A-4AAB-AA05-130E03DE0014}"/>
+    <hyperlink ref="J28" r:id="rId15" xr:uid="{6AB20786-EADA-4802-BFF0-748CAFD81116}"/>
+    <hyperlink ref="J66" r:id="rId16" xr:uid="{785740EC-9761-4008-9AC6-D8F44047C78A}"/>
+    <hyperlink ref="J7" r:id="rId17" xr:uid="{0BB32F50-1A2E-4481-AB97-2F84CFA05DE1}"/>
+    <hyperlink ref="J25" r:id="rId18" xr:uid="{9E3CEEDC-F4F2-492F-ACDB-73D1E0919418}"/>
+    <hyperlink ref="J32" r:id="rId19" xr:uid="{D4D23731-FED8-4653-8D96-D97BA9B7E39A}"/>
+    <hyperlink ref="J33" r:id="rId20" xr:uid="{54606556-E391-48E9-9AD6-6CB7E48560FC}"/>
+    <hyperlink ref="J40" r:id="rId21" xr:uid="{83E8C13A-921D-47A2-BE70-88C5270FD7EF}"/>
+    <hyperlink ref="J73" r:id="rId22" xr:uid="{FC06C212-BA6B-4F90-8A10-D77313BF3C4C}"/>
+    <hyperlink ref="J75" r:id="rId23" xr:uid="{347FF682-87F5-4F0B-A812-58952F970E8B}"/>
+    <hyperlink ref="J77" r:id="rId24" xr:uid="{A341B6F3-B9BA-4333-BACC-DF11922B86FB}"/>
+    <hyperlink ref="J79" r:id="rId25" xr:uid="{BE16F984-DE5B-4909-9594-C59ACF4DBA28}"/>
+    <hyperlink ref="J81" r:id="rId26" xr:uid="{C14CBAF7-1FAF-4267-B9FB-A4B7F0DE69E0}"/>
+    <hyperlink ref="J83" r:id="rId27" xr:uid="{DA96ADCB-8E71-478B-A397-155A6F08FE4A}"/>
+    <hyperlink ref="J85" r:id="rId28" xr:uid="{C64F9F05-964E-4570-8C6C-19E90E71C5B8}"/>
+    <hyperlink ref="J67" r:id="rId29" xr:uid="{57F9FDC2-5CAF-4B75-89B7-A928FFCEF296}"/>
+    <hyperlink ref="J68" r:id="rId30" xr:uid="{9AB44C86-A8EF-4268-9ECC-0465135E7588}"/>
+    <hyperlink ref="J69" r:id="rId31" xr:uid="{D64D47F6-2C71-4C61-8A88-E83F8B71B75B}"/>
+    <hyperlink ref="J70" r:id="rId32" xr:uid="{C8F19A48-C9B6-450E-8053-220E3521E401}"/>
+    <hyperlink ref="J71" r:id="rId33" xr:uid="{66554BE5-9ACF-4EC4-B163-453D011D6A3C}"/>
+    <hyperlink ref="J72" r:id="rId34" xr:uid="{E3637D53-CA09-405F-B103-1D07E5F4059C}"/>
+    <hyperlink ref="J65" r:id="rId35" xr:uid="{B1605391-3380-4AEF-9DF7-96CEC6698602}"/>
+    <hyperlink ref="J50" r:id="rId36" xr:uid="{1BFE4B42-9584-4E47-81B7-874FD7AA2FC9}"/>
+    <hyperlink ref="J49" r:id="rId37" xr:uid="{A7D2F0FC-7D9B-4F52-90CE-F42EC771FA44}"/>
+    <hyperlink ref="J51" r:id="rId38" xr:uid="{3F3137A0-A087-44C4-B337-54360C3824EF}"/>
+    <hyperlink ref="J52" r:id="rId39" xr:uid="{9036E319-9159-42A6-8D0D-5EB3FEF99B8A}"/>
+    <hyperlink ref="J53" r:id="rId40" xr:uid="{67FF963A-07D4-4A77-AD27-7CBDDE517A3A}"/>
+    <hyperlink ref="J54" r:id="rId41" xr:uid="{B80111A4-F69D-4932-B6AB-648762081878}"/>
+    <hyperlink ref="J91" r:id="rId42" xr:uid="{DADEB376-3FB1-4F2A-B01B-7F4370D656F2}"/>
+    <hyperlink ref="J44" r:id="rId43" xr:uid="{40890E3D-F758-485C-8310-C7E7B3E8CC01}"/>
+    <hyperlink ref="J43" r:id="rId44" xr:uid="{CBF097EE-B8C0-4FEB-A300-866C53BFE7F2}"/>
+    <hyperlink ref="J93" r:id="rId45" xr:uid="{C4BAF60D-0D86-4351-B6F0-8DE90345F86E}"/>
+    <hyperlink ref="J62" r:id="rId46" xr:uid="{0FB2F006-8BF8-426C-ACB4-40DF5FD830AA}"/>
+    <hyperlink ref="J92" r:id="rId47" xr:uid="{EB3CBCB1-8C82-47E7-9A6C-714E15B64079}"/>
+    <hyperlink ref="J47" r:id="rId48" xr:uid="{8375FA16-16F9-4702-A4B1-050A42B01F2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3368,7 +4596,7 @@
   <dimension ref="B1:J143"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127:J127"/>
+      <selection activeCell="I151" sqref="I150:I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,7 +6753,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="75" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>67</v>
       </c>
@@ -7033,7 +8261,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>352</v>
       </c>
@@ -7530,7 +8758,7 @@
   <autoFilter ref="B1:J143" xr:uid="{73E4F53B-D23C-452C-8E83-91419B729A4F}">
     <filterColumn colId="1">
       <filters>
-        <filter val="100k"/>
+        <filter val="USB_B_Mini"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Hardware/Electronics/Classification and Control Board/BoM.xlsx
+++ b/Hardware/Electronics/Classification and Control Board/BoM.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\branches\CandC_shrink\Hardware\Electronics\Classification and Control Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37054DF9-3BB4-4D23-B50F-74B0140C9DC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6F066-ADBC-46EE-B2B5-50E4FBDAA7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22080" yWindow="7815" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification and Control" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Classification and Control'!$B$1:$J$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Classification and Control'!$B$1:$J$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1155,15 +1155,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109:D111"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
@@ -1197,147 +1197,147 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="I2" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="J2" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="J4" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="I6" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1357,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G3:G66" si="0">1-F7</f>
+        <f>1-F7</f>
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -1372,132 +1372,136 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8">
-        <v>0.1</v>
+        <v>0.49</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
+        <f>1-F8</f>
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" t="s">
-        <v>174</v>
+        <v>230</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0.1</v>
+        <v>0.49</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
+        <f>1-F9</f>
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="I9" t="s">
-        <v>176</v>
-      </c>
-      <c r="J9" t="s">
-        <v>177</v>
+        <v>230</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0.49</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
+        <f>1-F10</f>
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="I10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J10" t="s">
-        <v>177</v>
+        <v>230</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>0.1</v>
+        <v>0.49</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
+        <f>1-F11</f>
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11" t="s">
-        <v>174</v>
+        <v>230</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1506,27 +1510,27 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="I12" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="J12" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1535,18 +1539,18 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I13" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="J13" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1575,10 +1579,10 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -1593,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I15" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -1633,10 +1637,10 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -1651,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -1680,18 +1684,18 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I18" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -1720,10 +1724,10 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -1738,18 +1742,18 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -1778,10 +1782,10 @@
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -1796,27 +1800,27 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1825,21 +1829,21 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I23" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
@@ -1854,87 +1858,85 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I24" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25">
-        <v>0.49</v>
+        <v>0.1</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25" si="1">1-F25</f>
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="I25" t="s">
-        <v>230</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>231</v>
+        <v>170</v>
+      </c>
+      <c r="J25" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>225</v>
+        <v>170</v>
+      </c>
+      <c r="J26" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="E27">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1943,234 +1945,237 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="J27" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="E28">
-        <v>0.21</v>
+        <v>0.72</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28" si="2">1-F28</f>
+        <f>1-F28</f>
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
+        <f>1-F29</f>
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="I29" t="s">
-        <v>176</v>
-      </c>
-      <c r="J29" t="s">
-        <v>177</v>
+        <v>236</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="E30">
-        <v>1.48</v>
+        <v>0.63</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
+        <f>1-F30</f>
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="I30" t="s">
-        <v>172</v>
-      </c>
-      <c r="J30" t="s">
-        <v>173</v>
+        <v>236</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="E31">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f>1-F31</f>
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="I31" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E32">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <f t="shared" ref="G32:G33" si="3">1-F32</f>
+        <f>1-F32</f>
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I32" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>43</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E33">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <f t="shared" si="3"/>
+        <f>1-F33</f>
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="I33" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E34">
-        <v>0.1</v>
+        <v>0.63</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
+        <f>1-F34</f>
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="I34" t="s">
-        <v>170</v>
-      </c>
-      <c r="J34" t="s">
-        <v>174</v>
+        <v>236</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
       <c r="E35">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2179,27 +2184,27 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="I35" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J35" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
       <c r="E36">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2208,79 +2213,81 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I36" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J36" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
       <c r="E37">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
+        <f>1-F37</f>
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="I37" t="s">
-        <v>176</v>
-      </c>
-      <c r="J37" t="s">
-        <v>177</v>
+        <v>224</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
       <c r="E38">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
+        <f>1-F38</f>
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="I38" t="s">
-        <v>176</v>
-      </c>
-      <c r="J38" t="s">
-        <v>177</v>
+        <v>224</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
@@ -2295,51 +2302,50 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I39" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J39" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
       </c>
       <c r="E40">
-        <v>0.49</v>
+        <v>0.1</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <f t="shared" ref="G40" si="4">1-F40</f>
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="I40" t="s">
-        <v>230</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>231</v>
+        <v>176</v>
+      </c>
+      <c r="J40" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
@@ -2354,18 +2360,18 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J41" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -2394,106 +2400,103 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E43">
-        <v>0.48</v>
+        <v>0.1</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="I43" t="s">
-        <v>251</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>252</v>
+        <v>176</v>
+      </c>
+      <c r="J43" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="E44">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="I44" t="s">
-        <v>248</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>249</v>
+        <v>176</v>
+      </c>
+      <c r="J44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>0.69</v>
+        <v>0.1</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="I45" t="s">
-        <v>218</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>219</v>
+        <v>176</v>
+      </c>
+      <c r="J45" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2502,233 +2505,227 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J46" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="E47">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="I47" t="s">
-        <v>260</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>261</v>
+        <v>176</v>
+      </c>
+      <c r="J47" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="E48">
-        <v>2.08</v>
+        <v>0.1</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="J48" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <f t="shared" ref="G49" si="5">1-F49</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="I49" t="s">
-        <v>242</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>243</v>
+        <v>176</v>
+      </c>
+      <c r="J49" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="I50" t="s">
-        <v>242</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>243</v>
+        <v>176</v>
+      </c>
+      <c r="J50" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E51">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <f t="shared" ref="G51:G54" si="6">1-F51</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="I51" t="s">
-        <v>242</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>243</v>
+        <v>176</v>
+      </c>
+      <c r="J51" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="I52" t="s">
-        <v>242</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>243</v>
+        <v>176</v>
+      </c>
+      <c r="J52" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="E53">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="I53" t="s">
-        <v>242</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>243</v>
+        <v>176</v>
+      </c>
+      <c r="J53" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="E54">
         <v>0.15</v>
@@ -2737,60 +2734,60 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="I54" t="s">
-        <v>242</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>243</v>
+        <v>198</v>
+      </c>
+      <c r="J54" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E55">
-        <v>1.01</v>
+        <v>0.43</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <f>1-F55</f>
+        <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
-      </c>
-      <c r="J55" t="s">
-        <v>192</v>
+        <v>248</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E56">
-        <v>3.38</v>
+        <v>1.45</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2799,589 +2796,597 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="J56" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="C57" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
+        <f>1-F57</f>
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="I57" t="s">
-        <v>195</v>
-      </c>
-      <c r="J57" t="s">
-        <v>195</v>
+        <v>221</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
+        <f>1-F58</f>
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="I58" t="s">
-        <v>195</v>
-      </c>
-      <c r="J58" t="s">
-        <v>195</v>
+        <v>215</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>17.55</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
+        <f>1-F59</f>
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>196</v>
+        <v>257</v>
       </c>
       <c r="I59" t="s">
-        <v>195</v>
-      </c>
-      <c r="J59" t="s">
-        <v>195</v>
+        <v>258</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <f>1-F60</f>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="I60" t="s">
-        <v>195</v>
-      </c>
-      <c r="J60" t="s">
-        <v>195</v>
+        <v>245</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="C61" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
+        <f>1-F61</f>
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="I61" t="s">
-        <v>195</v>
-      </c>
-      <c r="J61" t="s">
-        <v>195</v>
+        <v>233</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C62" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E62">
-        <v>0.65</v>
+        <v>0.25</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f>1-F62</f>
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="I62" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D63" t="s">
         <v>105</v>
       </c>
       <c r="E63">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F63">
         <v>1</v>
       </c>
       <c r="G63">
+        <f>1-F63</f>
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="I63" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="D64" t="s">
         <v>105</v>
       </c>
       <c r="E64">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="F64">
         <v>1</v>
       </c>
       <c r="G64">
+        <f>1-F64</f>
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="I64" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
         <v>105</v>
       </c>
       <c r="E65">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="F65">
         <v>1</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f>1-F65</f>
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I65" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="D66" t="s">
         <v>105</v>
       </c>
       <c r="E66">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="F66">
         <v>1</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f>1-F66</f>
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I66" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D67" t="s">
         <v>105</v>
       </c>
       <c r="E67">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="F67">
         <v>1</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G95" si="7">1-F67</f>
+        <f>1-F67</f>
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I67" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D68" t="s">
         <v>105</v>
       </c>
       <c r="E68">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="F68">
         <v>1</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G72" si="8">1-F68</f>
+        <f>1-F68</f>
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="I68" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="E69">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>1-F69</f>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="I69" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E70">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>1-F70</f>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I70" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E71">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>1-F71</f>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I71" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E72">
-        <v>0.42</v>
+        <v>0.22</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>1-F72</f>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="I72" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E73">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>1-F73</f>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I73" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E74">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <f>1-F74</f>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="I74" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="E75">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" ref="G75" si="9">1-F75</f>
-        <v>0</v>
+        <f>1-F75</f>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="I75" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E76">
-        <v>0.35</v>
+        <v>3.31</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3390,116 +3395,115 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="I76" t="s">
-        <v>212</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>213</v>
+        <v>185</v>
+      </c>
+      <c r="J76" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="E77">
-        <v>0.17</v>
+        <v>6.74</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
-        <f t="shared" ref="G77" si="10">1-F77</f>
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="I77" t="s">
-        <v>233</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>234</v>
+        <v>206</v>
+      </c>
+      <c r="J77" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D78" t="s">
         <v>105</v>
       </c>
       <c r="E78">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78">
+        <f>1-F78</f>
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="I78" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="E79">
-        <v>0.17</v>
+        <v>2.04</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" ref="G79" si="11">1-F79</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="I79" t="s">
-        <v>233</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>234</v>
+        <v>188</v>
+      </c>
+      <c r="J79" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C80" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E80">
-        <v>0.35</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3508,107 +3512,106 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="I80" t="s">
-        <v>212</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
+      </c>
+      <c r="J80" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="E81">
-        <v>0.17</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
-        <f t="shared" ref="G81" si="12">1-F81</f>
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="I81" t="s">
-        <v>233</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>234</v>
+        <v>201</v>
+      </c>
+      <c r="J81" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C82" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="E82">
-        <v>0.35</v>
+        <v>0.99</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
+        <f>1-F82</f>
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I82" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C83" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
         <v>105</v>
       </c>
       <c r="E83">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G83" si="13">1-F83</f>
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I83" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
         <v>104</v>
@@ -3617,7 +3620,7 @@
         <v>105</v>
       </c>
       <c r="E84">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3637,37 +3640,36 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
         <v>105</v>
       </c>
       <c r="E85">
-        <v>0.17</v>
+        <v>0.52</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
-        <f t="shared" ref="G85" si="14">1-F85</f>
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I85" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C86" t="s">
         <v>104</v>
@@ -3676,7 +3678,7 @@
         <v>105</v>
       </c>
       <c r="E86">
-        <v>0.35</v>
+        <v>0.52</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3696,75 +3698,74 @@
     </row>
     <row r="87" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87">
-        <v>150</v>
+        <v>124</v>
+      </c>
+      <c r="C87" t="s">
+        <v>104</v>
       </c>
       <c r="D87" t="s">
         <v>105</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>0.52</v>
       </c>
       <c r="F87">
         <v>1</v>
       </c>
       <c r="G87">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I87" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E88">
-        <v>0.15</v>
+        <v>0.52</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="I88" t="s">
-        <v>198</v>
-      </c>
-      <c r="J88" t="s">
-        <v>199</v>
+        <v>212</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="E89">
-        <v>1.1200000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3773,27 +3774,27 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I89" t="s">
-        <v>201</v>
-      </c>
-      <c r="J89" t="s">
-        <v>202</v>
+        <v>212</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D90" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="E90">
-        <v>1.1200000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3802,162 +3803,161 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="I90" t="s">
-        <v>201</v>
-      </c>
-      <c r="J90" t="s">
-        <v>202</v>
+        <v>212</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>104</v>
       </c>
       <c r="D91" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E91">
-        <v>0.45</v>
+        <v>0.52</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="I91" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" t="s">
-        <v>146</v>
+        <v>133</v>
+      </c>
+      <c r="C92">
+        <v>150</v>
       </c>
       <c r="D92" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="E92">
-        <v>11.72</v>
+        <v>0.15</v>
       </c>
       <c r="F92">
         <v>1</v>
       </c>
       <c r="G92">
-        <f t="shared" si="7"/>
+        <f>1-F92</f>
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>257</v>
+        <v>208</v>
       </c>
       <c r="I92" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>148</v>
+        <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="E93">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="I93" t="s">
-        <v>204</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>253</v>
+        <v>191</v>
+      </c>
+      <c r="J93" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="C94" t="s">
-        <v>152</v>
+        <v>59</v>
       </c>
       <c r="D94" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
       <c r="E94">
-        <v>6.88</v>
+        <v>0.69</v>
       </c>
       <c r="F94">
         <v>1</v>
       </c>
       <c r="G94">
+        <f>1-F94</f>
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="I94" t="s">
-        <v>206</v>
-      </c>
-      <c r="J94" t="s">
-        <v>207</v>
+        <v>218</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="E95">
-        <v>0.56999999999999995</v>
+        <v>0.97</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="G95">
-        <f t="shared" si="7"/>
+        <f>1-F95</f>
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="I95" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.25">
@@ -3966,68 +3966,72 @@
       </c>
       <c r="E96">
         <f>SUM(E2:E95)</f>
-        <v>48.160000000000032</v>
+        <v>59.090000000000025</v>
       </c>
       <c r="F96">
-        <f t="shared" ref="F96:G96" si="15">SUM(F2:F95)</f>
+        <f>SUM(F2:F95)</f>
         <v>78</v>
       </c>
       <c r="G96">
-        <f t="shared" si="15"/>
+        <f>SUM(G2:G95)</f>
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J95" xr:uid="{A56EB152-C8D6-4F90-A8F5-F0B7333D94D6}"/>
+  <autoFilter ref="B1:J96" xr:uid="{A56EB152-C8D6-4F90-A8F5-F0B7333D94D6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J96">
+      <sortCondition ref="I1:I96"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="J87" r:id="rId1" xr:uid="{F13FC284-70A4-4C96-9C50-FEC68AEB5362}"/>
-    <hyperlink ref="J63" r:id="rId2" xr:uid="{9E9AC47E-15B7-4A7A-8704-ACCB6B21CBAD}"/>
-    <hyperlink ref="J64" r:id="rId3" xr:uid="{3B3845CF-4E8E-4611-8B71-E3287EE4FFE8}"/>
-    <hyperlink ref="J74" r:id="rId4" xr:uid="{E3BDDEE3-5D3B-420D-A21B-852AA6892FFF}"/>
-    <hyperlink ref="J76" r:id="rId5" xr:uid="{8D288F50-B5D4-4876-A6AF-C90390C3CF76}"/>
-    <hyperlink ref="J78" r:id="rId6" xr:uid="{DAE84B3D-E1CC-4106-9F5A-72100C9820DD}"/>
-    <hyperlink ref="J80" r:id="rId7" xr:uid="{41D013B1-9A04-4513-ACE1-45B8AA743B69}"/>
-    <hyperlink ref="J82" r:id="rId8" xr:uid="{7B79BF6E-A3D9-4669-AE88-002BF49D5DA4}"/>
-    <hyperlink ref="J84" r:id="rId9" xr:uid="{55E7AE11-E45B-4510-8B17-D6DF930F8CF9}"/>
-    <hyperlink ref="J86" r:id="rId10" xr:uid="{843CE52B-2A70-482A-BECB-1C54769C9226}"/>
-    <hyperlink ref="J31" r:id="rId11" xr:uid="{DCA30EC8-39CD-4817-8950-A0DDE5394238}"/>
-    <hyperlink ref="J45" r:id="rId12" xr:uid="{F15A40FE-B590-430F-B15D-BE08B02C2830}"/>
-    <hyperlink ref="J95" r:id="rId13" xr:uid="{9126D8DD-A96F-494D-B12A-AC96726E8C30}"/>
-    <hyperlink ref="J26" r:id="rId14" xr:uid="{0B8B1C80-232A-4AAB-AA05-130E03DE0014}"/>
-    <hyperlink ref="J28" r:id="rId15" xr:uid="{6AB20786-EADA-4802-BFF0-748CAFD81116}"/>
-    <hyperlink ref="J66" r:id="rId16" xr:uid="{785740EC-9761-4008-9AC6-D8F44047C78A}"/>
+    <hyperlink ref="J92" r:id="rId1" xr:uid="{F13FC284-70A4-4C96-9C50-FEC68AEB5362}"/>
+    <hyperlink ref="J83" r:id="rId2" xr:uid="{9E9AC47E-15B7-4A7A-8704-ACCB6B21CBAD}"/>
+    <hyperlink ref="J84" r:id="rId3" xr:uid="{3B3845CF-4E8E-4611-8B71-E3287EE4FFE8}"/>
+    <hyperlink ref="J85" r:id="rId4" xr:uid="{E3BDDEE3-5D3B-420D-A21B-852AA6892FFF}"/>
+    <hyperlink ref="J86" r:id="rId5" xr:uid="{8D288F50-B5D4-4876-A6AF-C90390C3CF76}"/>
+    <hyperlink ref="J87" r:id="rId6" xr:uid="{DAE84B3D-E1CC-4106-9F5A-72100C9820DD}"/>
+    <hyperlink ref="J88" r:id="rId7" xr:uid="{41D013B1-9A04-4513-ACE1-45B8AA743B69}"/>
+    <hyperlink ref="J89" r:id="rId8" xr:uid="{7B79BF6E-A3D9-4669-AE88-002BF49D5DA4}"/>
+    <hyperlink ref="J90" r:id="rId9" xr:uid="{55E7AE11-E45B-4510-8B17-D6DF930F8CF9}"/>
+    <hyperlink ref="J91" r:id="rId10" xr:uid="{843CE52B-2A70-482A-BECB-1C54769C9226}"/>
+    <hyperlink ref="J58" r:id="rId11" xr:uid="{DCA30EC8-39CD-4817-8950-A0DDE5394238}"/>
+    <hyperlink ref="J94" r:id="rId12" xr:uid="{F15A40FE-B590-430F-B15D-BE08B02C2830}"/>
+    <hyperlink ref="J57" r:id="rId13" xr:uid="{9126D8DD-A96F-494D-B12A-AC96726E8C30}"/>
+    <hyperlink ref="J37" r:id="rId14" xr:uid="{0B8B1C80-232A-4AAB-AA05-130E03DE0014}"/>
+    <hyperlink ref="J38" r:id="rId15" xr:uid="{6AB20786-EADA-4802-BFF0-748CAFD81116}"/>
+    <hyperlink ref="J78" r:id="rId16" xr:uid="{785740EC-9761-4008-9AC6-D8F44047C78A}"/>
     <hyperlink ref="J7" r:id="rId17" xr:uid="{0BB32F50-1A2E-4481-AB97-2F84CFA05DE1}"/>
-    <hyperlink ref="J25" r:id="rId18" xr:uid="{9E3CEEDC-F4F2-492F-ACDB-73D1E0919418}"/>
-    <hyperlink ref="J32" r:id="rId19" xr:uid="{D4D23731-FED8-4653-8D96-D97BA9B7E39A}"/>
-    <hyperlink ref="J33" r:id="rId20" xr:uid="{54606556-E391-48E9-9AD6-6CB7E48560FC}"/>
-    <hyperlink ref="J40" r:id="rId21" xr:uid="{83E8C13A-921D-47A2-BE70-88C5270FD7EF}"/>
-    <hyperlink ref="J73" r:id="rId22" xr:uid="{FC06C212-BA6B-4F90-8A10-D77313BF3C4C}"/>
-    <hyperlink ref="J75" r:id="rId23" xr:uid="{347FF682-87F5-4F0B-A812-58952F970E8B}"/>
-    <hyperlink ref="J77" r:id="rId24" xr:uid="{A341B6F3-B9BA-4333-BACC-DF11922B86FB}"/>
-    <hyperlink ref="J79" r:id="rId25" xr:uid="{BE16F984-DE5B-4909-9594-C59ACF4DBA28}"/>
-    <hyperlink ref="J81" r:id="rId26" xr:uid="{C14CBAF7-1FAF-4267-B9FB-A4B7F0DE69E0}"/>
-    <hyperlink ref="J83" r:id="rId27" xr:uid="{DA96ADCB-8E71-478B-A397-155A6F08FE4A}"/>
-    <hyperlink ref="J85" r:id="rId28" xr:uid="{C64F9F05-964E-4570-8C6C-19E90E71C5B8}"/>
-    <hyperlink ref="J67" r:id="rId29" xr:uid="{57F9FDC2-5CAF-4B75-89B7-A928FFCEF296}"/>
-    <hyperlink ref="J68" r:id="rId30" xr:uid="{9AB44C86-A8EF-4268-9ECC-0465135E7588}"/>
-    <hyperlink ref="J69" r:id="rId31" xr:uid="{D64D47F6-2C71-4C61-8A88-E83F8B71B75B}"/>
-    <hyperlink ref="J70" r:id="rId32" xr:uid="{C8F19A48-C9B6-450E-8053-220E3521E401}"/>
-    <hyperlink ref="J71" r:id="rId33" xr:uid="{66554BE5-9ACF-4EC4-B163-453D011D6A3C}"/>
-    <hyperlink ref="J72" r:id="rId34" xr:uid="{E3637D53-CA09-405F-B103-1D07E5F4059C}"/>
-    <hyperlink ref="J65" r:id="rId35" xr:uid="{B1605391-3380-4AEF-9DF7-96CEC6698602}"/>
-    <hyperlink ref="J50" r:id="rId36" xr:uid="{1BFE4B42-9584-4E47-81B7-874FD7AA2FC9}"/>
-    <hyperlink ref="J49" r:id="rId37" xr:uid="{A7D2F0FC-7D9B-4F52-90CE-F42EC771FA44}"/>
-    <hyperlink ref="J51" r:id="rId38" xr:uid="{3F3137A0-A087-44C4-B337-54360C3824EF}"/>
-    <hyperlink ref="J52" r:id="rId39" xr:uid="{9036E319-9159-42A6-8D0D-5EB3FEF99B8A}"/>
-    <hyperlink ref="J53" r:id="rId40" xr:uid="{67FF963A-07D4-4A77-AD27-7CBDDE517A3A}"/>
-    <hyperlink ref="J54" r:id="rId41" xr:uid="{B80111A4-F69D-4932-B6AB-648762081878}"/>
-    <hyperlink ref="J91" r:id="rId42" xr:uid="{DADEB376-3FB1-4F2A-B01B-7F4370D656F2}"/>
-    <hyperlink ref="J44" r:id="rId43" xr:uid="{40890E3D-F758-485C-8310-C7E7B3E8CC01}"/>
-    <hyperlink ref="J43" r:id="rId44" xr:uid="{CBF097EE-B8C0-4FEB-A300-866C53BFE7F2}"/>
-    <hyperlink ref="J93" r:id="rId45" xr:uid="{C4BAF60D-0D86-4351-B6F0-8DE90345F86E}"/>
-    <hyperlink ref="J62" r:id="rId46" xr:uid="{0FB2F006-8BF8-426C-ACB4-40DF5FD830AA}"/>
-    <hyperlink ref="J92" r:id="rId47" xr:uid="{EB3CBCB1-8C82-47E7-9A6C-714E15B64079}"/>
-    <hyperlink ref="J47" r:id="rId48" xr:uid="{8375FA16-16F9-4702-A4B1-050A42B01F2B}"/>
+    <hyperlink ref="J8" r:id="rId18" xr:uid="{9E3CEEDC-F4F2-492F-ACDB-73D1E0919418}"/>
+    <hyperlink ref="J9" r:id="rId19" xr:uid="{D4D23731-FED8-4653-8D96-D97BA9B7E39A}"/>
+    <hyperlink ref="J10" r:id="rId20" xr:uid="{54606556-E391-48E9-9AD6-6CB7E48560FC}"/>
+    <hyperlink ref="J11" r:id="rId21" xr:uid="{83E8C13A-921D-47A2-BE70-88C5270FD7EF}"/>
+    <hyperlink ref="J61" r:id="rId22" xr:uid="{FC06C212-BA6B-4F90-8A10-D77313BF3C4C}"/>
+    <hyperlink ref="J62" r:id="rId23" xr:uid="{347FF682-87F5-4F0B-A812-58952F970E8B}"/>
+    <hyperlink ref="J63" r:id="rId24" xr:uid="{A341B6F3-B9BA-4333-BACC-DF11922B86FB}"/>
+    <hyperlink ref="J64" r:id="rId25" xr:uid="{BE16F984-DE5B-4909-9594-C59ACF4DBA28}"/>
+    <hyperlink ref="J65" r:id="rId26" xr:uid="{C14CBAF7-1FAF-4267-B9FB-A4B7F0DE69E0}"/>
+    <hyperlink ref="J66" r:id="rId27" xr:uid="{DA96ADCB-8E71-478B-A397-155A6F08FE4A}"/>
+    <hyperlink ref="J67" r:id="rId28" xr:uid="{C64F9F05-964E-4570-8C6C-19E90E71C5B8}"/>
+    <hyperlink ref="J29" r:id="rId29" xr:uid="{57F9FDC2-5CAF-4B75-89B7-A928FFCEF296}"/>
+    <hyperlink ref="J30" r:id="rId30" xr:uid="{9AB44C86-A8EF-4268-9ECC-0465135E7588}"/>
+    <hyperlink ref="J31" r:id="rId31" xr:uid="{D64D47F6-2C71-4C61-8A88-E83F8B71B75B}"/>
+    <hyperlink ref="J32" r:id="rId32" xr:uid="{C8F19A48-C9B6-450E-8053-220E3521E401}"/>
+    <hyperlink ref="J33" r:id="rId33" xr:uid="{66554BE5-9ACF-4EC4-B163-453D011D6A3C}"/>
+    <hyperlink ref="J34" r:id="rId34" xr:uid="{E3637D53-CA09-405F-B103-1D07E5F4059C}"/>
+    <hyperlink ref="J68" r:id="rId35" xr:uid="{B1605391-3380-4AEF-9DF7-96CEC6698602}"/>
+    <hyperlink ref="J71" r:id="rId36" xr:uid="{1BFE4B42-9584-4E47-81B7-874FD7AA2FC9}"/>
+    <hyperlink ref="J70" r:id="rId37" xr:uid="{A7D2F0FC-7D9B-4F52-90CE-F42EC771FA44}"/>
+    <hyperlink ref="J72" r:id="rId38" xr:uid="{3F3137A0-A087-44C4-B337-54360C3824EF}"/>
+    <hyperlink ref="J73" r:id="rId39" xr:uid="{9036E319-9159-42A6-8D0D-5EB3FEF99B8A}"/>
+    <hyperlink ref="J74" r:id="rId40" xr:uid="{67FF963A-07D4-4A77-AD27-7CBDDE517A3A}"/>
+    <hyperlink ref="J75" r:id="rId41" xr:uid="{B80111A4-F69D-4932-B6AB-648762081878}"/>
+    <hyperlink ref="J60" r:id="rId42" xr:uid="{DADEB376-3FB1-4F2A-B01B-7F4370D656F2}"/>
+    <hyperlink ref="J55" r:id="rId43" xr:uid="{40890E3D-F758-485C-8310-C7E7B3E8CC01}"/>
+    <hyperlink ref="J28" r:id="rId44" xr:uid="{CBF097EE-B8C0-4FEB-A300-866C53BFE7F2}"/>
+    <hyperlink ref="J82" r:id="rId45" xr:uid="{C4BAF60D-0D86-4351-B6F0-8DE90345F86E}"/>
+    <hyperlink ref="J95" r:id="rId46" xr:uid="{0FB2F006-8BF8-426C-ACB4-40DF5FD830AA}"/>
+    <hyperlink ref="J59" r:id="rId47" xr:uid="{EB3CBCB1-8C82-47E7-9A6C-714E15B64079}"/>
+    <hyperlink ref="J69" r:id="rId48" xr:uid="{8375FA16-16F9-4702-A4B1-050A42B01F2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hardware/Electronics/Classification and Control Board/BoM.xlsx
+++ b/Hardware/Electronics/Classification and Control Board/BoM.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\branches\CandC_shrink\Hardware\Electronics\Classification and Control Board\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\trunk\Hardware\Electronics\Classification and Control Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6F066-ADBC-46EE-B2B5-50E4FBDAA7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908BE73D-47FD-42B8-8427-33EE72246B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22080" yWindow="7815" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classification and Control" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Classification and Control'!$B$1:$J$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Classification and Control'!$B$1:$K$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="262">
   <si>
     <t xml:space="preserve">    C2</t>
   </si>
@@ -200,9 +200,6 @@
     <t xml:space="preserve">    D1</t>
   </si>
   <si>
-    <t>LTST-C171TBKT</t>
-  </si>
-  <si>
     <t>LED_SMD:LED_0805_2012Metric</t>
   </si>
   <si>
@@ -224,12 +221,6 @@
     <t xml:space="preserve">    D6</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LED_SMD:LED_0603_1608Metric</t>
-  </si>
-  <si>
     <t xml:space="preserve">    J1</t>
   </si>
   <si>
@@ -362,9 +353,6 @@
     <t xml:space="preserve">    R4</t>
   </si>
   <si>
-    <t>65R</t>
-  </si>
-  <si>
     <t xml:space="preserve">    R5</t>
   </si>
   <si>
@@ -458,12 +446,6 @@
     <t>Switches:DIP-Switch_01x02</t>
   </si>
   <si>
-    <t xml:space="preserve">    SW3</t>
-  </si>
-  <si>
-    <t>BT Enable</t>
-  </si>
-  <si>
     <t xml:space="preserve">    U1</t>
   </si>
   <si>
@@ -503,9 +485,6 @@
     <t xml:space="preserve">    Y1</t>
   </si>
   <si>
-    <t>12MHz</t>
-  </si>
-  <si>
     <t>Resonators:CSTNE12M0GH5L000R0</t>
   </si>
   <si>
@@ -551,45 +530,24 @@
     <t>1276-CL10B104KB8NNNLCT-ND</t>
   </si>
   <si>
-    <t>100µF Molded Tantalum Capacitors 10V 1206 (3216 Metric) 1.4Ohm</t>
-  </si>
-  <si>
-    <t>478-5651-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/avx-corporation/TLJA107M010R1400/478-5651-1-ND/2077306</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686</t>
-  </si>
-  <si>
     <t>10000pF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
     <t>445-5662-1-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/tdk-corporation/CGA3E2X7R1H103K080AA/445-5662-1-ND/2443702</t>
-  </si>
-  <si>
     <t>1000pF ±10% 50V Ceramic Capacitor X7R 0603 (1608 Metric)</t>
   </si>
   <si>
     <t>311-1080-1-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/yageo/CC0603KRX7R9BB102/311-1080-1-ND/302990</t>
-  </si>
-  <si>
     <t>Green 571nm LED Indication - Discrete 2V 0603 (1608 Metric)</t>
   </si>
   <si>
     <t>160-1446-1-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/lite-on-inc/LTST-C191KGKT/160-1446-1-ND/386834</t>
-  </si>
-  <si>
     <t>USB - micro B USB 2.0 Receptacle Connector 5 Position Surface Mount, Right Angle; Through Hole</t>
   </si>
   <si>
@@ -605,9 +563,6 @@
     <t>CP-063AH-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/products/en?keywords=PJ-063AH</t>
-  </si>
-  <si>
     <t>6 Position Header Connector  Through Hole, Right Angle</t>
   </si>
   <si>
@@ -623,12 +578,6 @@
     <t>Silkscreen</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
     <t>Tactile Switch SPST-NO Top Actuated Through Hole</t>
   </si>
   <si>
@@ -644,12 +593,6 @@
     <t>CT3113CT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com.au/product-detail/en/cts-electrocomponents/219-2LPSTR/CT3113CT-ND/5875765</t>
-  </si>
-  <si>
-    <t>Linear Voltage Regulator IC Positive Fixed 1 Output  300mA SOT-223-5</t>
-  </si>
-  <si>
     <t>MCP1755T-5002E/DCCT-ND</t>
   </si>
   <si>
@@ -668,18 +611,12 @@
     <t>RHM150DCT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/rohm-semiconductor/ESR03EZPJ151/RHM150DCT-ND/1984636</t>
-  </si>
-  <si>
     <t>100 kOhms ±0.1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200 Thin Film</t>
   </si>
   <si>
     <t>P100KDBCT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERA-3AEB104V/P100KDBCT-ND/1466100</t>
-  </si>
-  <si>
     <t>10µF 16V Aluminum Electrolytic Capacitors Radial, Can - SMD  2000 Hrs @ 85°C</t>
   </si>
   <si>
@@ -698,15 +635,6 @@
     <t>https://www.digikey.com.au/product-detail/en/diodes-incorporated/SMAZ10-13-F/SMAZ10-FDICT-ND/775874</t>
   </si>
   <si>
-    <t>12MHz Ceramic Resonator Built in Capacitor 33pF ±0.11% 30 Ohms -40°C ~ 85°C Surface Mount</t>
-  </si>
-  <si>
-    <t>490-17947-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/CSTNE12M0GH5L000R0/490-17947-1-ND/8747755</t>
-  </si>
-  <si>
     <t>2.2µF ±10% 16V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -722,9 +650,6 @@
     <t>A130434CT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/te-connectivity-passive-product/CRGP0603F33K/A130434CT-ND/8578266</t>
-  </si>
-  <si>
     <t>4.7µF ±10% 25V Ceramic Capacitor X5R 0603 (1608 Metric)</t>
   </si>
   <si>
@@ -734,90 +659,45 @@
     <t>https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10A475KA8NQNC/1276-1900-1-ND/3889986</t>
   </si>
   <si>
-    <t>499 kOhms ±1% 0.25W, 1/4W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
-  </si>
-  <si>
     <t>541-499KSCT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/vishay-dale/CRCW0603499KFKEAHP/541-499KSCT-ND/5326850</t>
-  </si>
-  <si>
     <t>50 mOhms ±0.5% 0.2W, 1/5W Chip Resistor 0603 (1608 Metric) Current Sense Metal Film</t>
   </si>
   <si>
     <t>273-KDV06DR050ETCT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/ohmite/KDV06DR050ET/273-KDV06DR050ETCT-ND/10477057</t>
-  </si>
-  <si>
-    <t>68 Ohms ±1% 0.25W, 1/4W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
-  </si>
-  <si>
     <t>541-68.0SCT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/vishay-dale/CRCW060368R0FKEAHP/541-68.0SCT-ND/5326867</t>
-  </si>
-  <si>
     <t>Connector Header Through Hole, Right Angle 3 position 0.100" (2.54mm)</t>
   </si>
   <si>
     <t>609-6345-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/amphenol-icc-fci/68016-403HLF/609-6345-ND/4273587</t>
-  </si>
-  <si>
     <t>Linear Voltage Regulator IC  1 Output  1.2A SOT-223</t>
   </si>
   <si>
     <t>497-17239-1-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/LDL1117S33R/497-17239-1-ND/7102079</t>
-  </si>
-  <si>
     <t>Orange 606nm LED Indication - Discrete 2V 0805 (2012 Metric)</t>
   </si>
   <si>
     <t>475-2488-1-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/osram-opto-semiconductors-inc/LO-R976-PS-1/475-2488-1-ND/1802615</t>
-  </si>
-  <si>
-    <t>Blue 470nm LED Indication - Discrete 3.3V 0805 (2012 Metric)</t>
-  </si>
-  <si>
-    <t>160-1645-1-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/lite-on-inc/LTST-C171TBKT/160-1645-1-ND/573585</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/microchip-technology/MCP1755T-5002E-DC/MCP1755T-5002E-DCCT-ND/4484876</t>
-  </si>
-  <si>
     <t>P-Channel 20V 7.4A (Tc) 5W (Tc) Surface Mount 6-TSOP</t>
   </si>
   <si>
     <t>SQ3425EV-T1_GE3CT-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/vishay-siliconix/SQ3425EV-T1_GE3/SQ3425EV-T1_GE3CT-ND/6708983</t>
-  </si>
-  <si>
     <t>ARM® Cortex®-M4 STM32F4 Microcontroller IC 32-Bit 168MHz 1MB (1M x 8) FLASH 100-LQFP (14x14)</t>
   </si>
   <si>
-    <t>497-11605-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/stmicroelectronics/STM32F407VGT6/497-11605-ND/2747117</t>
-  </si>
-  <si>
     <t>609-3263-ND</t>
   </si>
   <si>
@@ -825,13 +705,134 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>8MHz</t>
+  </si>
+  <si>
+    <t>LTST-C171TGKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    R3</t>
+  </si>
+  <si>
+    <t>6R</t>
+  </si>
+  <si>
+    <t>68R</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/samsung-electro-mechanics/CL10B104KB8NNNL/1276-CL10B104KB8NNNLCT-ND/10320686</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/lite-on-inc/LTST-C191KGKT/160-1446-1-ND/386834</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/ohmite/KDV06DR050ET/273-KDV06DR050ETCT-ND/10477057</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/yageo/CC0603KRX7R9BB102/311-1080-1-ND/302990</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/tdk-corporation/CGA3E2X7R1H103K080AA/445-5662-1-ND/2443702</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/osram-opto-semiconductors-inc/LO-R976-PS-1/475-2488-1-ND/1802615</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/stmicroelectronics/LDL1117S33R/497-17239-1-ND/7102079</t>
+  </si>
+  <si>
+    <t>499 kOhms ±1% 0.333W, 1/3W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/vishay-dale/CRCW0603499KFKEAHP/541-499KSCT-ND/5326850</t>
+  </si>
+  <si>
+    <t>68 Ohms ±1% 0.333W, 1/3W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Pulse Withstanding Thick Film</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/vishay-dale/CRCW060368R0FKEAHP/541-68.0SCT-ND/5326867</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/amphenol-icc-fci/68016-403HLF/609-6345-ND/4273587</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/te-connectivity-passive-product/CRGP0603F33K/A130434CT-ND/8578266</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/cui-devices/PJ-063AH/CP-063AH-ND/2161208</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERA-3AEB104V/P100KDBCT-ND/1466100</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/rohm-semiconductor/ESR03EZPJ151/RHM150DCT-ND/1984636</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/vishay-siliconix/SQ3425EV-T1_GE3/SQ3425EV-T1_GE3CT-ND/6708983</t>
+  </si>
+  <si>
+    <t>Mounting Hole</t>
+  </si>
+  <si>
+    <t>6.8 Ohms ±1% 0.1W, 1/10W Chip Resistor 0603 (1608 Metric) Automotive AEC-Q200, Current Sense Thick Film</t>
+  </si>
+  <si>
+    <t>P6.8AJCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/ERJ-3RQF6R8V/P6-8AJCT-ND/308120</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/products/en?keywords=CT3113CT-ND</t>
+  </si>
+  <si>
+    <t>497-17437-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/stmicroelectronics/STM32F407VGT6TR/497-17437-1-ND/7804406</t>
+  </si>
+  <si>
+    <t>Linear Voltage Regulator IC  1 Output  300mA SOT-223-5</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/microchip-technology/MCP1755T-5002E-DC/MCP1755T-5002E-DCCT-ND/4484876</t>
+  </si>
+  <si>
+    <t>8MHz Ceramic Resonator Built in Capacitor 33pF ±0.2% 40 Ohms -40°C ~ 85°C Surface Mount</t>
+  </si>
+  <si>
+    <t>490-17958-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/murata-electronics/CSTNE8M00G550000R0/490-17958-1-ND/8747766</t>
+  </si>
+  <si>
+    <t>Cart Line Item</t>
+  </si>
+  <si>
+    <t>100µF 25V Aluminum Electrolytic Capacitors Radial, Can - SMD  2000 Hrs @ 85°C</t>
+  </si>
+  <si>
+    <t>PCE3898CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com.au/product-detail/en/panasonic-electronic-components/EEE-1EA101XP/PCE3898CT-ND/766274</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -843,6 +844,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -865,15 +879,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1153,205 +1179,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J96"/>
+  <dimension ref="B1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="102.28515625" customWidth="1"/>
     <col min="9" max="9" width="34.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>158</v>
       </c>
-      <c r="D1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F1" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H1" t="s">
-        <v>163</v>
-      </c>
-      <c r="I1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.63</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
+        <f>1-F2</f>
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
+        <v>30</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.63</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
+        <f>1-F3</f>
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="I3" t="s">
-        <v>195</v>
-      </c>
-      <c r="J3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.63</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
+        <f>1-F4</f>
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>96</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.63</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
+        <f>1-F5</f>
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.63</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
+        <f>1-F6</f>
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="I6" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0.49</v>
+      <c r="E7" s="4">
+        <v>0.17</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1361,27 +1412,30 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="K7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>0.49</v>
+      <c r="E8" s="4">
+        <v>0.17</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1391,27 +1445,30 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="K8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>0.49</v>
+      <c r="E9" s="4">
+        <v>0.17</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1421,27 +1478,30 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="I9" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="K9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>0.49</v>
+      <c r="E10" s="4">
+        <v>0.17</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1451,27 +1511,30 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="E11">
-        <v>0.49</v>
+      <c r="E11" s="4">
+        <v>0.17</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1481,491 +1544,558 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="I11" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>0.15</v>
+      <c r="E12" s="4">
+        <v>0.17</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
+        <f>1-F12</f>
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>167</v>
-      </c>
-      <c r="J12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>0.15</v>
+      <c r="E13" s="4">
+        <v>0.17</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
+        <f>1-F13</f>
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>0.1</v>
+      <c r="E14" s="4">
+        <v>0.17</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
+        <f>1-F14</f>
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
-      </c>
-      <c r="J14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>0.1</v>
+      <c r="E15" s="4">
+        <v>0.17</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
+        <f>1-F15</f>
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
-      </c>
-      <c r="J15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>0.1</v>
+      <c r="E16" s="4">
+        <v>0.17</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
+        <f>1-F16</f>
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
-      </c>
-      <c r="J16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K16" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>0.1</v>
+      <c r="E17" s="4">
+        <v>0.17</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
+        <f>1-F17</f>
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
-      <c r="E18">
-        <v>0.1</v>
+      <c r="E18" s="4">
+        <v>0.17</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
+        <f>1-F18</f>
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
-      </c>
-      <c r="J18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K18" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>0.1</v>
+      <c r="E19" s="4">
+        <v>0.17</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
+        <f>1-F19</f>
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K19" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>0.1</v>
+      <c r="E20" s="4">
+        <v>0.17</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
+        <f>1-F20</f>
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I20" t="s">
-        <v>170</v>
-      </c>
-      <c r="J20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>0.1</v>
+      <c r="E21" s="4">
+        <v>0.17</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
+        <f>1-F21</f>
         <v>0</v>
       </c>
       <c r="H21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <f>1-F22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" t="s">
         <v>169</v>
       </c>
-      <c r="I21" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0.1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="J22" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.44</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <f>1-F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" t="s">
         <v>169</v>
       </c>
-      <c r="I22" t="s">
-        <v>170</v>
-      </c>
-      <c r="J22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>0.1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>169</v>
-      </c>
-      <c r="I23" t="s">
-        <v>170</v>
-      </c>
-      <c r="J23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="K23" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1</v>
+        <v>107</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>0.1</v>
+        <v>102</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.68</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
+        <f>1-F24</f>
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="I24" t="s">
-        <v>170</v>
-      </c>
-      <c r="J24" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
+        <v>109</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0.1</v>
+        <v>102</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.68</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
+        <f>1-F25</f>
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
-      </c>
-      <c r="J25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K25" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>0.1</v>
+        <v>102</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.68</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
+        <f>1-F26</f>
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="I26" t="s">
-        <v>170</v>
-      </c>
-      <c r="J26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>62</v>
+        <v>111</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27">
-        <v>0.42</v>
+        <v>102</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.68</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
+        <f>1-F27</f>
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
-      </c>
-      <c r="J27" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
+        <v>112</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28">
-        <v>0.72</v>
+        <v>102</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.68</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1975,27 +2105,30 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="K28" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C29" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29">
-        <v>0.63</v>
+        <v>102</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.68</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2005,27 +2138,30 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="I29" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="K29" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" t="s">
-        <v>112</v>
+        <v>16</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30">
-        <v>0.63</v>
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.17</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2035,27 +2171,30 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="I30" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="K30" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31">
-        <v>0.63</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.17</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2065,27 +2204,30 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="K31" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" t="s">
-        <v>112</v>
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32">
-        <v>0.63</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.24</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2095,27 +2237,30 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="I32" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="K32" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
+        <v>34</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33">
-        <v>0.63</v>
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.24</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2125,27 +2270,30 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="I33" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="K33" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>117</v>
-      </c>
-      <c r="C34" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34">
-        <v>0.63</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.17</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2155,85 +2303,96 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="I34" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="K34" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>17</v>
+        <v>6</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D35" t="s">
         <v>2</v>
       </c>
-      <c r="E35">
-        <v>0.15</v>
+      <c r="E35" s="4">
+        <v>0.17</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
+        <f>1-F35</f>
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="I35" t="s">
-        <v>179</v>
-      </c>
-      <c r="J35" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D36" t="s">
         <v>2</v>
       </c>
-      <c r="E36">
-        <v>0.15</v>
+      <c r="E36" s="4">
+        <v>0.17</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
+        <f>1-F36</f>
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="I36" t="s">
-        <v>179</v>
-      </c>
-      <c r="J36" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K36" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D37" t="s">
         <v>2</v>
       </c>
-      <c r="E37">
-        <v>0.21</v>
+      <c r="E37" s="4">
+        <v>0.17</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2243,27 +2402,30 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="K37" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>2</v>
       </c>
-      <c r="E38">
-        <v>0.21</v>
+      <c r="E38" s="4">
+        <v>0.17</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2273,491 +2435,558 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="I38" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="K38" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
         <v>2</v>
       </c>
-      <c r="E39">
-        <v>0.1</v>
+      <c r="E39" s="4">
+        <v>0.17</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39">
+        <f>1-F39</f>
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I39" t="s">
-        <v>176</v>
-      </c>
-      <c r="J39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="E40">
-        <v>0.1</v>
+      <c r="E40" s="4">
+        <v>0.17</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
+        <f>1-F40</f>
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I40" t="s">
-        <v>176</v>
-      </c>
-      <c r="J40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K40" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="E41">
-        <v>0.1</v>
+      <c r="E41" s="4">
+        <v>0.17</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41">
+        <f>1-F41</f>
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I41" t="s">
-        <v>176</v>
-      </c>
-      <c r="J41" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K41" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D42" t="s">
         <v>2</v>
       </c>
-      <c r="E42">
-        <v>0.1</v>
+      <c r="E42" s="4">
+        <v>0.17</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42">
+        <f>1-F42</f>
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I42" t="s">
-        <v>176</v>
-      </c>
-      <c r="J42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K42" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D43" t="s">
         <v>2</v>
       </c>
-      <c r="E43">
-        <v>0.1</v>
+      <c r="E43" s="4">
+        <v>0.17</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43">
+        <f>1-F43</f>
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I43" t="s">
-        <v>176</v>
-      </c>
-      <c r="J43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K43" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
         <v>2</v>
       </c>
-      <c r="E44">
-        <v>0.1</v>
+      <c r="E44" s="4">
+        <v>0.17</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44">
+        <f>1-F44</f>
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
-      </c>
-      <c r="J44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K44" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D45" t="s">
         <v>2</v>
       </c>
-      <c r="E45">
-        <v>0.1</v>
+      <c r="E45" s="4">
+        <v>0.17</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45">
+        <f>1-F45</f>
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I45" t="s">
-        <v>176</v>
-      </c>
-      <c r="J45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K45" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
-      <c r="E46">
-        <v>0.1</v>
+      <c r="E46" s="4">
+        <v>0.17</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
+        <f>1-F46</f>
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I46" t="s">
-        <v>176</v>
-      </c>
-      <c r="J46" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K46" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D47" t="s">
         <v>2</v>
       </c>
-      <c r="E47">
-        <v>0.1</v>
+      <c r="E47" s="4">
+        <v>0.17</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47">
+        <f>1-F47</f>
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K47" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
       </c>
-      <c r="E48">
-        <v>0.1</v>
+      <c r="E48" s="4">
+        <v>0.17</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
+        <f>1-F48</f>
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="I48" t="s">
-        <v>176</v>
-      </c>
-      <c r="J48" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="K48" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49">
-        <v>0.1</v>
+        <v>54</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.47</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49">
+        <f>1-F49</f>
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="I49" t="s">
-        <v>176</v>
-      </c>
-      <c r="J49" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K49" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
+        <v>39</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50">
-        <v>0.1</v>
+        <v>41</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.46</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50">
+        <f>1-F50</f>
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I50" t="s">
-        <v>176</v>
-      </c>
-      <c r="J50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K50" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
+        <v>136</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>0.1</v>
+        <v>138</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.73</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51">
+        <f>1-F51</f>
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="I51" t="s">
-        <v>176</v>
-      </c>
-      <c r="J51" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K51" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>48</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
+        <v>114</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52">
-        <v>0.1</v>
+        <v>102</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52">
+        <f>1-F52</f>
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="I52" t="s">
-        <v>176</v>
-      </c>
-      <c r="J52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K52" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4</v>
+        <v>117</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53">
-        <v>0.1</v>
+        <v>102</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53">
+        <f>1-F53</f>
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="I53" t="s">
-        <v>176</v>
-      </c>
-      <c r="J53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K53" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" t="s">
-        <v>135</v>
+        <v>119</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
-      </c>
-      <c r="E54">
-        <v>0.15</v>
+        <v>102</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <f>1-F54</f>
+        <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="I54" t="s">
-        <v>198</v>
-      </c>
-      <c r="J54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" t="s">
-        <v>57</v>
+        <v>121</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E55">
-        <v>0.43</v>
+        <v>102</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2767,56 +2996,63 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I55" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="K55" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" t="s">
-        <v>37</v>
+        <v>123</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
-      </c>
-      <c r="E56">
-        <v>1.45</v>
+        <v>102</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
+        <f>1-F56</f>
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="I56" t="s">
-        <v>172</v>
-      </c>
-      <c r="J56" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="K56" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>154</v>
-      </c>
-      <c r="C57" t="s">
-        <v>155</v>
+        <v>125</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
-      </c>
-      <c r="E57">
-        <v>0.56999999999999995</v>
+        <v>102</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2826,27 +3062,30 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="I57" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="K57" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" t="s">
-        <v>40</v>
+        <v>127</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E58">
-        <v>0.4</v>
+        <v>102</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2856,27 +3095,30 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="I58" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="K58" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>145</v>
-      </c>
-      <c r="C59" t="s">
-        <v>146</v>
+        <v>104</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59">
-        <v>17.55</v>
+        <v>102</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.28999999999999998</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2886,27 +3128,30 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="I59" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="K59" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C60" t="s">
-        <v>143</v>
+        <v>67</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60">
-        <v>0.67</v>
+        <v>69</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.25</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2916,177 +3161,195 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>244</v>
+        <v>211</v>
       </c>
       <c r="I60" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="K60" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>118</v>
-      </c>
-      <c r="C61" t="s">
-        <v>119</v>
+        <v>70</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61">
+        <v>69</v>
+      </c>
+      <c r="E61" s="4">
         <v>0.25</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
         <f>1-F61</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I61" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="K61" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
+        <v>72</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
-      </c>
-      <c r="E62">
+        <v>69</v>
+      </c>
+      <c r="E62" s="4">
         <v>0.25</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
         <f>1-F62</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I62" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="K62" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" t="s">
-        <v>119</v>
+        <v>74</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
-      </c>
-      <c r="E63">
+        <v>69</v>
+      </c>
+      <c r="E63" s="4">
         <v>0.25</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
         <f>1-F63</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I63" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="K63" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>125</v>
-      </c>
-      <c r="C64" t="s">
-        <v>119</v>
+        <v>76</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
-      </c>
-      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="E64" s="4">
         <v>0.25</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <f>1-F64</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I64" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="K64" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C65" t="s">
-        <v>119</v>
+        <v>78</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
-      </c>
-      <c r="E65">
+        <v>69</v>
+      </c>
+      <c r="E65" s="4">
         <v>0.25</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <f>1-F65</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="I65" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+      <c r="K65" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>129</v>
-      </c>
-      <c r="C66" t="s">
-        <v>119</v>
+        <v>83</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66">
-        <v>0.25</v>
+        <v>85</v>
+      </c>
+      <c r="E66" s="4">
+        <v>3.51</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -3096,27 +3359,30 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="I66" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+      <c r="K66" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>131</v>
-      </c>
-      <c r="C67" t="s">
-        <v>119</v>
+        <v>145</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67">
-        <v>0.25</v>
+        <v>147</v>
+      </c>
+      <c r="E67" s="4">
+        <v>7.63</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -3126,26 +3392,29 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
       <c r="I67" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+      <c r="K67" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E68">
+        <v>102</v>
+      </c>
+      <c r="E68" s="4">
         <v>0.25</v>
       </c>
       <c r="F68">
@@ -3156,27 +3425,30 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="I68" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K68" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>64</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D69" t="s">
         <v>66</v>
       </c>
-      <c r="E69">
-        <v>0.4</v>
+      <c r="E69" s="4">
+        <v>2.31</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -3186,265 +3458,294 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="I69" t="s">
-        <v>260</v>
+        <v>174</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="K69" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C70" t="s">
-        <v>71</v>
+        <v>100</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
-      </c>
-      <c r="E70">
-        <v>0.22</v>
+        <v>102</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
         <f>1-F70</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="I70" t="s">
+        <v>192</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K70" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>74</v>
+        <v>103</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E71">
-        <v>0.22</v>
+        <v>102</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <f>1-F71</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="I71" t="s">
+        <v>192</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K71" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C72" t="s">
-        <v>76</v>
+        <v>116</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>72</v>
-      </c>
-      <c r="E72">
-        <v>0.22</v>
+        <v>102</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <f>1-F72</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="I72" t="s">
+        <v>192</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K72" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" t="s">
-        <v>78</v>
+        <v>118</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>72</v>
-      </c>
-      <c r="E73">
-        <v>0.22</v>
+        <v>102</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <f>1-F73</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="I73" t="s">
+        <v>192</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K73" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" t="s">
-        <v>80</v>
+        <v>120</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
-      </c>
-      <c r="E74">
-        <v>0.22</v>
+        <v>102</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <f>1-F74</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="I74" t="s">
+        <v>192</v>
+      </c>
+      <c r="J74" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K74" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
-      </c>
-      <c r="E75">
-        <v>0.22</v>
+        <v>102</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <f>1-F75</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
       <c r="I75" t="s">
+        <v>192</v>
+      </c>
+      <c r="J75" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J75" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K75" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>87</v>
+        <v>124</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
-      </c>
-      <c r="E76">
-        <v>3.31</v>
+        <v>102</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
       <c r="G76">
+        <f>1-F76</f>
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="I76" t="s">
-        <v>185</v>
-      </c>
-      <c r="J76" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K76" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>151</v>
-      </c>
-      <c r="C77" t="s">
-        <v>152</v>
+        <v>126</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D77" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77">
-        <v>6.74</v>
+        <v>102</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
       <c r="G77">
+        <f>1-F77</f>
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
-      </c>
-      <c r="J77" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K77" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" t="s">
-        <v>110</v>
+        <v>128</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
-      </c>
-      <c r="E78">
-        <v>0.22</v>
+        <v>102</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.57999999999999996</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -3454,114 +3755,129 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="I78" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="K78" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>67</v>
-      </c>
-      <c r="C79" t="s">
-        <v>68</v>
+        <v>129</v>
+      </c>
+      <c r="C79" s="3">
+        <v>150</v>
       </c>
       <c r="D79" t="s">
-        <v>69</v>
-      </c>
-      <c r="E79">
-        <v>2.04</v>
+        <v>102</v>
+      </c>
+      <c r="E79" s="4">
+        <v>0.17</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <f>1-F79</f>
+        <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="I79" t="s">
-        <v>188</v>
-      </c>
-      <c r="J79" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K79" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C80" t="s">
-        <v>138</v>
+        <v>80</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="D80" t="s">
-        <v>139</v>
-      </c>
-      <c r="E80">
-        <v>1.0900000000000001</v>
+        <v>82</v>
+      </c>
+      <c r="E80" s="4">
+        <v>1.1200000000000001</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <f>1-F80</f>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="I80" t="s">
-        <v>201</v>
-      </c>
-      <c r="J80" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K80" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>140</v>
-      </c>
-      <c r="C81" t="s">
-        <v>141</v>
+        <v>57</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
-      </c>
-      <c r="E81">
-        <v>1.0900000000000001</v>
+        <v>59</v>
+      </c>
+      <c r="E81" s="4">
+        <v>0.76</v>
       </c>
       <c r="F81">
         <v>1</v>
       </c>
       <c r="G81">
+        <f>1-F81</f>
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I81" t="s">
-        <v>201</v>
-      </c>
-      <c r="J81" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K81" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" t="s">
-        <v>149</v>
+        <v>97</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D82" t="s">
-        <v>150</v>
-      </c>
-      <c r="E82">
-        <v>0.99</v>
+        <v>99</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1.07</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3571,347 +3887,363 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I82" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="K82" s="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" t="s">
-        <v>104</v>
+        <v>225</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
-      </c>
-      <c r="E83">
-        <v>0.52</v>
+        <v>102</v>
+      </c>
+      <c r="E83" s="4">
+        <v>0.31</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83">
+        <f>1-F83</f>
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="K83" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>106</v>
-      </c>
-      <c r="C84" t="s">
-        <v>104</v>
+        <v>148</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
-      </c>
-      <c r="E84">
-        <v>0.52</v>
+        <v>149</v>
+      </c>
+      <c r="E84" s="4">
+        <v>0.47</v>
       </c>
       <c r="F84">
         <v>1</v>
       </c>
       <c r="G84">
+        <f>1-F84</f>
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="I84" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="K84" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" t="s">
-        <v>104</v>
+        <v>36</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
-      </c>
-      <c r="E85">
-        <v>0.52</v>
+        <v>38</v>
+      </c>
+      <c r="E85" s="4">
+        <v>0.8</v>
       </c>
       <c r="F85">
         <v>1</v>
       </c>
       <c r="G85">
+        <f>1-F85</f>
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="I85" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="K85" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>122</v>
-      </c>
-      <c r="C86" t="s">
-        <v>104</v>
+        <v>61</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
-      </c>
-      <c r="E86">
-        <v>0.52</v>
+        <v>63</v>
+      </c>
+      <c r="E86" s="4">
+        <v>0.46</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <f>1-F86</f>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="I86" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>124</v>
-      </c>
-      <c r="C87" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
-      </c>
-      <c r="E87">
-        <v>0.52</v>
+        <v>88</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>211</v>
-      </c>
-      <c r="I87" t="s">
-        <v>212</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>126</v>
-      </c>
-      <c r="C88" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
-      </c>
-      <c r="E88">
-        <v>0.52</v>
+        <v>91</v>
+      </c>
+      <c r="E88" s="4">
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>211</v>
-      </c>
-      <c r="I88" t="s">
-        <v>212</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" t="s">
-        <v>104</v>
+        <v>92</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
-      </c>
-      <c r="E89">
-        <v>0.52</v>
+        <v>94</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>211</v>
-      </c>
-      <c r="I89" t="s">
-        <v>212</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
+        <v>95</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>245</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>96</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" t="s">
+        <v>94</v>
+      </c>
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>245</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>130</v>
       </c>
-      <c r="C90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90">
-        <v>0.52</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90" t="s">
-        <v>211</v>
-      </c>
-      <c r="I90" t="s">
-        <v>212</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="C92" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" t="s">
         <v>132</v>
       </c>
-      <c r="C91" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" t="s">
-        <v>105</v>
-      </c>
-      <c r="E91">
-        <v>0.52</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91" t="s">
-        <v>211</v>
-      </c>
-      <c r="I91" t="s">
-        <v>212</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
-        <v>133</v>
-      </c>
-      <c r="C92">
-        <v>150</v>
-      </c>
-      <c r="D92" t="s">
-        <v>105</v>
-      </c>
-      <c r="E92">
-        <v>0.15</v>
+      <c r="E92" s="4">
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <f>1-F92</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="I92" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>83</v>
-      </c>
-      <c r="C93" t="s">
-        <v>84</v>
+        <v>133</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="D93" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93">
-        <v>0.99</v>
+        <v>135</v>
+      </c>
+      <c r="E93" s="4">
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <f>1-F93</f>
+        <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="I93" t="s">
-        <v>191</v>
-      </c>
-      <c r="J93" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" t="s">
-        <v>59</v>
+        <v>139</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="D94" t="s">
-        <v>60</v>
-      </c>
-      <c r="E94">
-        <v>0.69</v>
+        <v>141</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3921,27 +4253,30 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="I94" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>100</v>
-      </c>
-      <c r="C95" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>143</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
-      </c>
-      <c r="E95">
-        <v>0.97</v>
+        <v>144</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3951,88 +4286,134 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I95" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D96" t="s">
-        <v>262</v>
-      </c>
-      <c r="E96">
+        <v>253</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D96" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E96" s="4">
         <f>SUM(E2:E95)</f>
-        <v>59.090000000000025</v>
+        <v>43.589999999999975</v>
       </c>
       <c r="F96">
         <f>SUM(F2:F95)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G96">
         <f>SUM(G2:G95)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J96" xr:uid="{A56EB152-C8D6-4F90-A8F5-F0B7333D94D6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J96">
-      <sortCondition ref="I1:I96"/>
+  <autoFilter ref="B1:K96" xr:uid="{06D30D7A-7315-4E57-BEA9-10C108ACDE75}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:K96">
+      <sortCondition ref="K1:K96"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J92" r:id="rId1" xr:uid="{F13FC284-70A4-4C96-9C50-FEC68AEB5362}"/>
-    <hyperlink ref="J83" r:id="rId2" xr:uid="{9E9AC47E-15B7-4A7A-8704-ACCB6B21CBAD}"/>
-    <hyperlink ref="J84" r:id="rId3" xr:uid="{3B3845CF-4E8E-4611-8B71-E3287EE4FFE8}"/>
-    <hyperlink ref="J85" r:id="rId4" xr:uid="{E3BDDEE3-5D3B-420D-A21B-852AA6892FFF}"/>
-    <hyperlink ref="J86" r:id="rId5" xr:uid="{8D288F50-B5D4-4876-A6AF-C90390C3CF76}"/>
-    <hyperlink ref="J87" r:id="rId6" xr:uid="{DAE84B3D-E1CC-4106-9F5A-72100C9820DD}"/>
-    <hyperlink ref="J88" r:id="rId7" xr:uid="{41D013B1-9A04-4513-ACE1-45B8AA743B69}"/>
-    <hyperlink ref="J89" r:id="rId8" xr:uid="{7B79BF6E-A3D9-4669-AE88-002BF49D5DA4}"/>
-    <hyperlink ref="J90" r:id="rId9" xr:uid="{55E7AE11-E45B-4510-8B17-D6DF930F8CF9}"/>
-    <hyperlink ref="J91" r:id="rId10" xr:uid="{843CE52B-2A70-482A-BECB-1C54769C9226}"/>
-    <hyperlink ref="J58" r:id="rId11" xr:uid="{DCA30EC8-39CD-4817-8950-A0DDE5394238}"/>
-    <hyperlink ref="J94" r:id="rId12" xr:uid="{F15A40FE-B590-430F-B15D-BE08B02C2830}"/>
-    <hyperlink ref="J57" r:id="rId13" xr:uid="{9126D8DD-A96F-494D-B12A-AC96726E8C30}"/>
-    <hyperlink ref="J37" r:id="rId14" xr:uid="{0B8B1C80-232A-4AAB-AA05-130E03DE0014}"/>
-    <hyperlink ref="J38" r:id="rId15" xr:uid="{6AB20786-EADA-4802-BFF0-748CAFD81116}"/>
-    <hyperlink ref="J78" r:id="rId16" xr:uid="{785740EC-9761-4008-9AC6-D8F44047C78A}"/>
-    <hyperlink ref="J7" r:id="rId17" xr:uid="{0BB32F50-1A2E-4481-AB97-2F84CFA05DE1}"/>
-    <hyperlink ref="J8" r:id="rId18" xr:uid="{9E3CEEDC-F4F2-492F-ACDB-73D1E0919418}"/>
-    <hyperlink ref="J9" r:id="rId19" xr:uid="{D4D23731-FED8-4653-8D96-D97BA9B7E39A}"/>
-    <hyperlink ref="J10" r:id="rId20" xr:uid="{54606556-E391-48E9-9AD6-6CB7E48560FC}"/>
-    <hyperlink ref="J11" r:id="rId21" xr:uid="{83E8C13A-921D-47A2-BE70-88C5270FD7EF}"/>
-    <hyperlink ref="J61" r:id="rId22" xr:uid="{FC06C212-BA6B-4F90-8A10-D77313BF3C4C}"/>
-    <hyperlink ref="J62" r:id="rId23" xr:uid="{347FF682-87F5-4F0B-A812-58952F970E8B}"/>
-    <hyperlink ref="J63" r:id="rId24" xr:uid="{A341B6F3-B9BA-4333-BACC-DF11922B86FB}"/>
-    <hyperlink ref="J64" r:id="rId25" xr:uid="{BE16F984-DE5B-4909-9594-C59ACF4DBA28}"/>
-    <hyperlink ref="J65" r:id="rId26" xr:uid="{C14CBAF7-1FAF-4267-B9FB-A4B7F0DE69E0}"/>
-    <hyperlink ref="J66" r:id="rId27" xr:uid="{DA96ADCB-8E71-478B-A397-155A6F08FE4A}"/>
-    <hyperlink ref="J67" r:id="rId28" xr:uid="{C64F9F05-964E-4570-8C6C-19E90E71C5B8}"/>
-    <hyperlink ref="J29" r:id="rId29" xr:uid="{57F9FDC2-5CAF-4B75-89B7-A928FFCEF296}"/>
-    <hyperlink ref="J30" r:id="rId30" xr:uid="{9AB44C86-A8EF-4268-9ECC-0465135E7588}"/>
-    <hyperlink ref="J31" r:id="rId31" xr:uid="{D64D47F6-2C71-4C61-8A88-E83F8B71B75B}"/>
-    <hyperlink ref="J32" r:id="rId32" xr:uid="{C8F19A48-C9B6-450E-8053-220E3521E401}"/>
-    <hyperlink ref="J33" r:id="rId33" xr:uid="{66554BE5-9ACF-4EC4-B163-453D011D6A3C}"/>
-    <hyperlink ref="J34" r:id="rId34" xr:uid="{E3637D53-CA09-405F-B103-1D07E5F4059C}"/>
-    <hyperlink ref="J68" r:id="rId35" xr:uid="{B1605391-3380-4AEF-9DF7-96CEC6698602}"/>
-    <hyperlink ref="J71" r:id="rId36" xr:uid="{1BFE4B42-9584-4E47-81B7-874FD7AA2FC9}"/>
-    <hyperlink ref="J70" r:id="rId37" xr:uid="{A7D2F0FC-7D9B-4F52-90CE-F42EC771FA44}"/>
-    <hyperlink ref="J72" r:id="rId38" xr:uid="{3F3137A0-A087-44C4-B337-54360C3824EF}"/>
-    <hyperlink ref="J73" r:id="rId39" xr:uid="{9036E319-9159-42A6-8D0D-5EB3FEF99B8A}"/>
-    <hyperlink ref="J74" r:id="rId40" xr:uid="{67FF963A-07D4-4A77-AD27-7CBDDE517A3A}"/>
-    <hyperlink ref="J75" r:id="rId41" xr:uid="{B80111A4-F69D-4932-B6AB-648762081878}"/>
-    <hyperlink ref="J60" r:id="rId42" xr:uid="{DADEB376-3FB1-4F2A-B01B-7F4370D656F2}"/>
-    <hyperlink ref="J55" r:id="rId43" xr:uid="{40890E3D-F758-485C-8310-C7E7B3E8CC01}"/>
-    <hyperlink ref="J28" r:id="rId44" xr:uid="{CBF097EE-B8C0-4FEB-A300-866C53BFE7F2}"/>
-    <hyperlink ref="J82" r:id="rId45" xr:uid="{C4BAF60D-0D86-4351-B6F0-8DE90345F86E}"/>
-    <hyperlink ref="J95" r:id="rId46" xr:uid="{0FB2F006-8BF8-426C-ACB4-40DF5FD830AA}"/>
-    <hyperlink ref="J59" r:id="rId47" xr:uid="{EB3CBCB1-8C82-47E7-9A6C-714E15B64079}"/>
-    <hyperlink ref="J69" r:id="rId48" xr:uid="{8375FA16-16F9-4702-A4B1-050A42B01F2B}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{3B390CD3-0353-472C-9B6C-3EB5E20C47F5}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{C25EE4D1-BF8F-483A-B50D-1368C59B1214}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{CDE321A6-2F67-4221-B697-8C6DC5EF6D73}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{A926DF64-AEB5-43C1-874A-D5D4CB2DD1FB}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{5D0CEEF8-8749-4D1C-9607-849ECB50E118}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{9DECBDA9-F90A-4718-9762-28D28C4F80A1}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{166365A0-DE1F-4340-B542-DECF3CA750B2}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{F85A3B9F-93A9-455D-9A6A-91686E6CA73A}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{1A85A13E-8993-4A52-883C-984D9E0B8E47}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{50FE2D3B-8270-45FD-A144-C589A22588E3}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{F1A27AF9-9399-4214-8854-510FC0FDAF8D}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{CB9EDA41-BC38-482E-A905-EB06D38340C6}"/>
+    <hyperlink ref="J14" r:id="rId13" xr:uid="{6CC71262-12DF-424A-8245-EA340FA56298}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{7F5EF852-4F2F-4049-BF9B-8A70D8CE1584}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{90B9C17D-9605-4B9B-8415-87322043DECA}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{7BD65FB9-BDCC-4531-B1A0-8F636C69A9C6}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{FCF66E8B-B66D-422E-92B6-0F4CB3B1287C}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{52B85827-6AEF-4635-8A4C-60F0EC43F781}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{FB40EA0E-EE5B-40BD-976B-1C0FAC82EA01}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{0B3E9935-9DC8-419B-A51D-6B0F5F9CB11D}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{AB68892A-C28D-4764-83E2-3822C3620DFD}"/>
+    <hyperlink ref="J24" r:id="rId22" xr:uid="{8211ADD6-C7E8-4E4E-9F43-00A365C0EEF6}"/>
+    <hyperlink ref="J25" r:id="rId23" xr:uid="{01CBCAF2-6F9A-4E5D-A759-3DB528D495EA}"/>
+    <hyperlink ref="J26" r:id="rId24" xr:uid="{D72BD385-C8F5-407C-9D5F-8F0065E27813}"/>
+    <hyperlink ref="J27" r:id="rId25" xr:uid="{9C5DA9A8-719F-4174-94ED-FA70ED47A27D}"/>
+    <hyperlink ref="J28" r:id="rId26" xr:uid="{82E5CD36-BF4E-4873-A300-21030E4764A4}"/>
+    <hyperlink ref="J29" r:id="rId27" xr:uid="{86A58F04-4B4A-469C-AF00-FCFF9E32625A}"/>
+    <hyperlink ref="J30" r:id="rId28" xr:uid="{906791EE-8C10-432B-B713-3F4F15E658C5}"/>
+    <hyperlink ref="J31" r:id="rId29" xr:uid="{77EA9145-5A44-4A80-BF7A-889AAC8E5A0B}"/>
+    <hyperlink ref="J32" r:id="rId30" xr:uid="{F36AA060-8E43-461C-B6FB-B718CF6171B5}"/>
+    <hyperlink ref="J33" r:id="rId31" xr:uid="{3E9BFB2A-368E-46D9-BE3C-3921C457B890}"/>
+    <hyperlink ref="J34" r:id="rId32" xr:uid="{7639C851-871F-4497-8C0E-F08EAA28DE8C}"/>
+    <hyperlink ref="J35" r:id="rId33" xr:uid="{20FC5C0D-CD72-4960-A21B-729B1DE987F6}"/>
+    <hyperlink ref="J36" r:id="rId34" xr:uid="{F1004C09-2FDD-4AD9-8232-5C89DFCB55ED}"/>
+    <hyperlink ref="J37" r:id="rId35" xr:uid="{6B7C25D9-4E92-4F0F-9F8D-B934CE984218}"/>
+    <hyperlink ref="J38" r:id="rId36" xr:uid="{A17681A8-7450-4F05-8431-19FA0B898BA7}"/>
+    <hyperlink ref="J39" r:id="rId37" xr:uid="{DA7E35E7-7EE5-45CD-A2D1-CD94FE684F13}"/>
+    <hyperlink ref="J40" r:id="rId38" xr:uid="{82F7FF6A-1090-4940-ABD8-F20473FB3B99}"/>
+    <hyperlink ref="J41" r:id="rId39" xr:uid="{BA0EB0B1-57AE-4945-BD37-BF0BBAF0E522}"/>
+    <hyperlink ref="J42" r:id="rId40" xr:uid="{4F4EBF7B-CAEB-46E2-870B-75D0ED54511B}"/>
+    <hyperlink ref="J43" r:id="rId41" xr:uid="{647D6483-50E3-4490-9385-F15DD15ACF22}"/>
+    <hyperlink ref="J44" r:id="rId42" xr:uid="{E12A0DD6-9C8D-4A4F-BE27-BE5159E05586}"/>
+    <hyperlink ref="J45" r:id="rId43" xr:uid="{1D9115F3-229A-4DAE-B65D-4CBDFF851538}"/>
+    <hyperlink ref="J46" r:id="rId44" xr:uid="{BCB9BA24-B763-4261-9144-6932B2CDA987}"/>
+    <hyperlink ref="J47" r:id="rId45" xr:uid="{047E415F-2B3C-4972-A031-A6B91F2EDE59}"/>
+    <hyperlink ref="J48" r:id="rId46" xr:uid="{D26CB757-B2AE-42A6-95AE-EE791F2413A1}"/>
+    <hyperlink ref="J49" r:id="rId47" xr:uid="{A7B30436-6DEE-407B-8B3A-82F072AC0581}"/>
+    <hyperlink ref="J50" r:id="rId48" xr:uid="{090E74B0-2D62-477D-BF5D-A3985283ABEA}"/>
+    <hyperlink ref="J51" r:id="rId49" xr:uid="{5C0C0065-5E0E-4C43-BBF7-F9C97671A85D}"/>
+    <hyperlink ref="J52" r:id="rId50" xr:uid="{41FF21E1-7A65-472A-8BA7-F35D24AC2F74}"/>
+    <hyperlink ref="J53" r:id="rId51" xr:uid="{03DBC3F5-5D71-4AB2-8A47-74B0B6F88F63}"/>
+    <hyperlink ref="J54" r:id="rId52" xr:uid="{5592F8D9-D981-4197-A35D-1994C664C87D}"/>
+    <hyperlink ref="J55" r:id="rId53" xr:uid="{15E60FC7-6527-4C18-94B6-9A3597FFA812}"/>
+    <hyperlink ref="J56" r:id="rId54" xr:uid="{0DFFB1E6-1671-4071-BB02-22EFA7E15350}"/>
+    <hyperlink ref="J57" r:id="rId55" xr:uid="{575F1D09-6650-4209-ADFB-836B848F4887}"/>
+    <hyperlink ref="J58" r:id="rId56" xr:uid="{36D7FB7C-ED0E-4AF3-87E6-B9DBE7305170}"/>
+    <hyperlink ref="J59" r:id="rId57" xr:uid="{56D3DD3B-5CCA-48F1-980F-76A7A6582D49}"/>
+    <hyperlink ref="J86" r:id="rId58" xr:uid="{68F01371-7428-4C11-83A3-C6829ABDAC9F}"/>
+    <hyperlink ref="J60" r:id="rId59" xr:uid="{9E26B389-5F39-4D61-9D04-4835119D607A}"/>
+    <hyperlink ref="J61" r:id="rId60" xr:uid="{96D483D9-0C41-4CA2-B7A1-1E45C01D9697}"/>
+    <hyperlink ref="J62" r:id="rId61" xr:uid="{D88BFF01-1BEE-448A-AECE-D09D0EF56FEB}"/>
+    <hyperlink ref="J63" r:id="rId62" xr:uid="{351627CB-BCCB-4728-9C26-451F498BBE13}"/>
+    <hyperlink ref="J64" r:id="rId63" xr:uid="{795E4EC9-DB70-495A-8217-5D3A8E652C2F}"/>
+    <hyperlink ref="J65" r:id="rId64" xr:uid="{41699774-98F7-43D1-B205-40A54421521A}"/>
+    <hyperlink ref="J66" r:id="rId65" xr:uid="{CC8831C1-6F0D-4CA8-AC7C-2670EDECFC6F}"/>
+    <hyperlink ref="J67" r:id="rId66" xr:uid="{95F87452-D86D-44D9-BB27-FAE2ED0A6FBD}"/>
+    <hyperlink ref="J68" r:id="rId67" xr:uid="{04426F45-C4E9-476C-91F2-A985C6037A2B}"/>
+    <hyperlink ref="J69" r:id="rId68" xr:uid="{8076AAC5-D106-461B-810E-131192755626}"/>
+    <hyperlink ref="J70" r:id="rId69" xr:uid="{1BCBA8D1-EB25-4D63-87BB-9242C1FF7203}"/>
+    <hyperlink ref="J71" r:id="rId70" xr:uid="{C9F148BE-09BE-4C31-9528-4EE5B6352E9E}"/>
+    <hyperlink ref="J72" r:id="rId71" xr:uid="{E149DD46-8609-461D-B6F2-BD20C187A0E6}"/>
+    <hyperlink ref="J73" r:id="rId72" xr:uid="{2538B51A-67AA-4258-B0FF-6018E1F0A897}"/>
+    <hyperlink ref="J74" r:id="rId73" xr:uid="{65253FD9-3899-4442-B1B1-0C8BD01FE598}"/>
+    <hyperlink ref="J75" r:id="rId74" xr:uid="{9537D2EC-03A7-4BA8-A665-08A1BC7777BF}"/>
+    <hyperlink ref="J76" r:id="rId75" xr:uid="{BA16DE79-44E1-4C8B-9B34-9B26B63D1D68}"/>
+    <hyperlink ref="J77" r:id="rId76" xr:uid="{F40EC0D1-6600-4C84-AE09-FBBCD78CF30B}"/>
+    <hyperlink ref="J78" r:id="rId77" xr:uid="{14B8E4DA-EB14-41E5-8989-7F691095665A}"/>
+    <hyperlink ref="J79" r:id="rId78" xr:uid="{223494D7-A0C0-4006-90B3-153FF616A98F}"/>
+    <hyperlink ref="J80" r:id="rId79" xr:uid="{93872B71-0E8A-4D0D-BCFC-BE3DCB0B8F17}"/>
+    <hyperlink ref="J81" r:id="rId80" xr:uid="{D16BAC70-46A5-4343-AE86-02BCD2D384B5}"/>
+    <hyperlink ref="J82" r:id="rId81" xr:uid="{B5C5219A-8B40-464C-974A-26D10ECB64FA}"/>
+    <hyperlink ref="J23" r:id="rId82" xr:uid="{E1F6858D-1305-40E1-B7F5-AB64ED03DDD5}"/>
+    <hyperlink ref="J83" r:id="rId83" xr:uid="{B9E2A2A3-81D1-4EA5-936C-2869DD099A9F}"/>
+    <hyperlink ref="J92" r:id="rId84" xr:uid="{469BE202-4635-4236-9881-E43BCBB727FC}"/>
+    <hyperlink ref="J93" r:id="rId85" xr:uid="{7D8702A6-4B01-485E-8242-2E73B8F1C249}"/>
+    <hyperlink ref="J94" r:id="rId86" xr:uid="{1631D317-7295-4710-BB0C-1EBAEC48C566}"/>
+    <hyperlink ref="J95" r:id="rId87" xr:uid="{AD456BF1-E157-4373-985F-96F9A17A5489}"/>
+    <hyperlink ref="J84" r:id="rId88" xr:uid="{F1EDBE54-2AD8-4D58-A281-F21873F82648}"/>
+    <hyperlink ref="J85" r:id="rId89" xr:uid="{00462552-8944-4929-962C-AE4BB730E678}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId90"/>
 </worksheet>
 </file>
--- a/Hardware/Electronics/Classification and Control Board/BoM.xlsx
+++ b/Hardware/Electronics/Classification and Control Board/BoM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willie\Documents\Uni\Newcastle\4 Fourth Year\1 Final Year Project\trunk\Hardware\Electronics\Classification and Control Board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908BE73D-47FD-42B8-8427-33EE72246B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF4F779-F393-4102-82CA-6B0C772E8C28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -830,7 +830,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -862,12 +862,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -884,7 +890,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -893,10 +899,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1181,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,7 +1234,7 @@
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1243,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f>1-F2</f>
+        <f t="shared" ref="G2:G33" si="0">1-F2</f>
         <v>0</v>
       </c>
       <c r="H2" t="s">
@@ -1260,7 +1267,7 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1276,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <f>1-F3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -1293,7 +1300,7 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1309,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <f>1-F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" t="s">
@@ -1326,7 +1333,7 @@
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1342,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f>1-F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" t="s">
@@ -1359,7 +1366,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1375,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <f>1-F6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" t="s">
@@ -1392,7 +1399,7 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1408,7 +1415,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <f>1-F7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -1425,7 +1432,7 @@
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1441,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <f>1-F8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" t="s">
@@ -1458,7 +1465,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1474,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <f>1-F9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" t="s">
@@ -1491,7 +1498,7 @@
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1507,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <f>1-F10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -1524,7 +1531,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1540,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <f>1-F11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -1557,7 +1564,7 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1573,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <f>1-F12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" t="s">
@@ -1590,7 +1597,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1606,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <f>1-F13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -1623,7 +1630,7 @@
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1639,7 +1646,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <f>1-F14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" t="s">
@@ -1656,7 +1663,7 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1672,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <f>1-F15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" t="s">
@@ -1689,7 +1696,7 @@
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1705,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <f>1-F16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" t="s">
@@ -1722,7 +1729,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -1738,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <f>1-F17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" t="s">
@@ -1755,7 +1762,7 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1771,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <f>1-F18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" t="s">
@@ -1788,7 +1795,7 @@
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1804,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <f>1-F19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" t="s">
@@ -1821,7 +1828,7 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1837,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <f>1-F20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" t="s">
@@ -1854,7 +1861,7 @@
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1870,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <f>1-F21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" t="s">
@@ -1887,7 +1894,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1903,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <f>1-F22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" t="s">
@@ -1920,7 +1927,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>60</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1936,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <f>1-F23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" t="s">
@@ -1953,7 +1960,7 @@
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>107</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1969,7 +1976,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <f>1-F24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" t="s">
@@ -1986,7 +1993,7 @@
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2002,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <f>1-F25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" t="s">
@@ -2019,7 +2026,7 @@
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>110</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2035,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <f>1-F26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" t="s">
@@ -2052,7 +2059,7 @@
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>111</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2068,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <f>1-F27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" t="s">
@@ -2085,7 +2092,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>112</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2101,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <f>1-F28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" t="s">
@@ -2118,7 +2125,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>113</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2134,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <f>1-F29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" t="s">
@@ -2151,7 +2158,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -2167,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <f>1-F30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" t="s">
@@ -2184,7 +2191,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2200,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <f>1-F31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" t="s">
@@ -2217,7 +2224,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -2233,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <f>1-F32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" t="s">
@@ -2250,7 +2257,7 @@
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -2266,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <f>1-F33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" t="s">
@@ -2283,7 +2290,7 @@
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -2299,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <f>1-F34</f>
+        <f t="shared" ref="G34:G65" si="1">1-F34</f>
         <v>0</v>
       </c>
       <c r="H34" t="s">
@@ -2316,7 +2323,7 @@
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -2332,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <f>1-F35</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H35" t="s">
@@ -2349,7 +2356,7 @@
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -2365,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <f>1-F36</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H36" t="s">
@@ -2382,7 +2389,7 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -2398,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <f>1-F37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H37" t="s">
@@ -2415,7 +2422,7 @@
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -2431,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <f>1-F38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H38" t="s">
@@ -2448,7 +2455,7 @@
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -2464,7 +2471,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <f>1-F39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H39" t="s">
@@ -2481,7 +2488,7 @@
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -2497,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <f>1-F40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H40" t="s">
@@ -2514,7 +2521,7 @@
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -2530,7 +2537,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <f>1-F41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H41" t="s">
@@ -2547,7 +2554,7 @@
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -2563,7 +2570,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <f>1-F42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H42" t="s">
@@ -2580,7 +2587,7 @@
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -2596,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <f>1-F43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H43" t="s">
@@ -2613,7 +2620,7 @@
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2629,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <f>1-F44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H44" t="s">
@@ -2646,7 +2653,7 @@
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -2662,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <f>1-F45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H45" t="s">
@@ -2679,7 +2686,7 @@
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -2695,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <f>1-F46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H46" t="s">
@@ -2712,7 +2719,7 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -2728,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <f>1-F47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H47" t="s">
@@ -2745,7 +2752,7 @@
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>52</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -2761,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <f>1-F48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48" t="s">
@@ -2778,7 +2785,7 @@
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -2794,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <f>1-F49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49" t="s">
@@ -2811,7 +2818,7 @@
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -2827,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <f>1-F50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H50" t="s">
@@ -2844,7 +2851,7 @@
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -2860,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <f>1-F51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51" t="s">
@@ -2877,7 +2884,7 @@
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -2893,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <f>1-F52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52" t="s">
@@ -2910,7 +2917,7 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>117</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -2926,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <f>1-F53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H53" t="s">
@@ -2943,7 +2950,7 @@
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -2959,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <f>1-F54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54" t="s">
@@ -2976,7 +2983,7 @@
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>121</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -2992,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <f>1-F55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" t="s">
@@ -3009,7 +3016,7 @@
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -3025,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <f>1-F56</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56" t="s">
@@ -3042,7 +3049,7 @@
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>125</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -3058,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <f>1-F57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H57" t="s">
@@ -3075,7 +3082,7 @@
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>127</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3091,7 +3098,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <f>1-F58</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H58" t="s">
@@ -3108,7 +3115,7 @@
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -3124,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <f>1-F59</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H59" t="s">
@@ -3141,7 +3148,7 @@
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -3157,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <f>1-F60</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H60" t="s">
@@ -3174,7 +3181,7 @@
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>70</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -3190,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <f>1-F61</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H61" t="s">
@@ -3207,7 +3214,7 @@
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -3223,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f>1-F62</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H62" t="s">
@@ -3240,7 +3247,7 @@
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -3256,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <f>1-F63</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H63" t="s">
@@ -3273,7 +3280,7 @@
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -3289,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <f>1-F64</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H64" t="s">
@@ -3306,7 +3313,7 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -3322,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="G65">
-        <f>1-F65</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H65" t="s">
@@ -3339,7 +3346,7 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>83</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -3355,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <f>1-F66</f>
+        <f t="shared" ref="G66:G97" si="2">1-F66</f>
         <v>0</v>
       </c>
       <c r="H66" t="s">
@@ -3372,7 +3379,7 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>145</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -3388,7 +3395,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <f>1-F67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H67" t="s">
@@ -3405,7 +3412,7 @@
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>105</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -3421,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <f>1-F68</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H68" t="s">
@@ -3438,7 +3445,7 @@
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -3454,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="G69">
-        <f>1-F69</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H69" t="s">
@@ -3471,7 +3478,7 @@
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>100</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -3487,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <f>1-F70</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H70" t="s">
@@ -3504,7 +3511,7 @@
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -3520,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <f>1-F71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H71" t="s">
@@ -3537,7 +3544,7 @@
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>116</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -3553,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <f>1-F72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H72" t="s">
@@ -3570,7 +3577,7 @@
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>118</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -3586,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <f>1-F73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H73" t="s">
@@ -3603,7 +3610,7 @@
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>120</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -3619,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <f>1-F74</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H74" t="s">
@@ -3636,7 +3643,7 @@
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>122</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -3652,7 +3659,7 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <f>1-F75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H75" t="s">
@@ -3669,7 +3676,7 @@
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -3685,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <f>1-F76</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H76" t="s">
@@ -3702,7 +3709,7 @@
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>126</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -3718,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <f>1-F77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H77" t="s">
@@ -3735,7 +3742,7 @@
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -3751,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <f>1-F78</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H78" t="s">
@@ -3768,7 +3775,7 @@
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>129</v>
       </c>
       <c r="C79" s="3">
@@ -3784,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <f>1-F79</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H79" t="s">
@@ -3801,7 +3808,7 @@
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -3817,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <f>1-F80</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H80" t="s">
@@ -3834,7 +3841,7 @@
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -3850,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <f>1-F81</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H81" t="s">
@@ -3867,7 +3874,7 @@
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>97</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -3883,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <f>1-F82</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H82" t="s">
@@ -3900,7 +3907,7 @@
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>225</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -3916,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <f>1-F83</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H83" t="s">
@@ -3933,7 +3940,7 @@
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>148</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -3949,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <f>1-F84</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H84" t="s">
@@ -3966,7 +3973,7 @@
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -3982,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <f>1-F85</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H85" t="s">
@@ -3999,7 +4006,7 @@
       </c>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>61</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -4015,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <f>1-F86</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H86" t="s">
@@ -4032,7 +4039,7 @@
       </c>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>86</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -4059,7 +4066,7 @@
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -4086,7 +4093,7 @@
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+      <c r="B89" s="6" t="s">
         <v>92</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -4113,7 +4120,7 @@
       </c>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>95</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -4140,7 +4147,7 @@
       </c>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>96</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -4167,7 +4174,7 @@
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -4200,7 +4207,7 @@
       </c>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>133</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -4233,7 +4240,7 @@
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>139</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -4266,7 +4273,7 @@
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>142</v>
       </c>
       <c r="C95" s="3" t="s">
